--- a/out/ExcellFiles/Orbitals5.xlsx
+++ b/out/ExcellFiles/Orbitals5.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,13 +429,13 @@
         <v>59043</v>
       </c>
       <c r="C2">
-        <v>6628</v>
+        <v>43999.99999999999</v>
       </c>
       <c r="D2">
-        <v>1.181503270665801e-16</v>
+        <v>0.09200000000000015</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11.99999999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -455,22 +455,22 @@
         <v>59044</v>
       </c>
       <c r="C3">
-        <v>6626.778714070906</v>
+        <v>44013.87097017388</v>
       </c>
       <c r="D3">
-        <v>0.001049284834737907</v>
+        <v>0.08806901717801786</v>
       </c>
       <c r="E3">
-        <v>9.848048632265339e-05</v>
+        <v>12.00581878537031</v>
       </c>
       <c r="F3">
-        <v>78.09574592420782</v>
+        <v>359.9894483377721</v>
       </c>
       <c r="G3">
-        <v>39.58439320943873</v>
+        <v>358.9615154603423</v>
       </c>
       <c r="H3">
-        <v>292.5833038086174</v>
+        <v>339.9285016699899</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,22 +481,22 @@
         <v>59045</v>
       </c>
       <c r="C4">
-        <v>6625.534325873819</v>
+        <v>44023.01690272745</v>
       </c>
       <c r="D4">
-        <v>0.001994559597431321</v>
+        <v>0.08413348678842292</v>
       </c>
       <c r="E4">
-        <v>0.0002318604646295932</v>
+        <v>12.0113098975724</v>
       </c>
       <c r="F4">
-        <v>70.01905847340939</v>
+        <v>359.9769216275458</v>
       </c>
       <c r="G4">
-        <v>78.33549477062689</v>
+        <v>357.7467808149374</v>
       </c>
       <c r="H4">
-        <v>313.9141196879486</v>
+        <v>320.0506632831429</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -507,22 +507,22 @@
         <v>59046</v>
       </c>
       <c r="C5">
-        <v>6624.06434007839</v>
+        <v>44026.62483874902</v>
       </c>
       <c r="D5">
-        <v>0.002649662449774603</v>
+        <v>0.08022755780643438</v>
       </c>
       <c r="E5">
-        <v>0.0003996481516347684</v>
+        <v>12.01628535426891</v>
       </c>
       <c r="F5">
-        <v>65.47182248909043</v>
+        <v>359.9636577548264</v>
       </c>
       <c r="G5">
-        <v>114.9817833808949</v>
+        <v>356.3699917199255</v>
       </c>
       <c r="H5">
-        <v>335.6249224024036</v>
+        <v>300.3464962847889</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -533,22 +533,22 @@
         <v>59047</v>
       </c>
       <c r="C6">
-        <v>6622.603453224911</v>
+        <v>44023.76670537444</v>
       </c>
       <c r="D6">
-        <v>0.00289596642711189</v>
+        <v>0.07640254530924442</v>
       </c>
       <c r="E6">
-        <v>0.0005981505506236504</v>
+        <v>12.02048316774237</v>
       </c>
       <c r="F6">
-        <v>63.01243366782233</v>
+        <v>359.9506991538185</v>
       </c>
       <c r="G6">
-        <v>150.3894475055847</v>
+        <v>354.8475306410896</v>
       </c>
       <c r="H6">
-        <v>358.3589631160404</v>
+        <v>280.7912719551826</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -559,22 +559,22 @@
         <v>59048</v>
       </c>
       <c r="C7">
-        <v>6621.209650759295</v>
+        <v>44014.39275077879</v>
       </c>
       <c r="D7">
-        <v>0.002660022968759458</v>
+        <v>0.07271726849634265</v>
       </c>
       <c r="E7">
-        <v>0.0008174614043046694</v>
+        <v>12.02361693637394</v>
       </c>
       <c r="F7">
-        <v>62.3989177605907</v>
+        <v>359.9391473292083</v>
       </c>
       <c r="G7">
-        <v>185.6744720975486</v>
+        <v>353.1783891191359</v>
       </c>
       <c r="H7">
-        <v>21.31809235514138</v>
+        <v>261.3747715016368</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -585,22 +585,22 @@
         <v>59049</v>
       </c>
       <c r="C8">
-        <v>6619.551694062296</v>
+        <v>43999.98734754885</v>
       </c>
       <c r="D8">
-        <v>0.001896865573948528</v>
+        <v>0.06921354932642775</v>
       </c>
       <c r="E8">
-        <v>0.001036117902291485</v>
+        <v>12.02550008585442</v>
       </c>
       <c r="F8">
-        <v>62.92573308517956</v>
+        <v>359.9300050859124</v>
       </c>
       <c r="G8">
-        <v>222.1422445227484</v>
+        <v>351.3302027640117</v>
       </c>
       <c r="H8">
-        <v>43.98223942054987</v>
+        <v>242.1181422747059</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -611,22 +611,22 @@
         <v>59050</v>
       </c>
       <c r="C9">
-        <v>6617.848205038589</v>
+        <v>43983.51773115247</v>
       </c>
       <c r="D9">
-        <v>0.0007662841123869333</v>
+        <v>0.06589499282580082</v>
       </c>
       <c r="E9">
-        <v>0.001238100140886636</v>
+        <v>12.02616108261807</v>
       </c>
       <c r="F9">
-        <v>63.85030630263945</v>
+        <v>359.9237332429091</v>
       </c>
       <c r="G9">
-        <v>266.8052304596816</v>
+        <v>349.2413551123942</v>
       </c>
       <c r="H9">
-        <v>60.16688118361523</v>
+        <v>223.076195863052</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -637,22 +637,22 @@
         <v>59051</v>
       </c>
       <c r="C10">
-        <v>6616.272565597706</v>
+        <v>43968.4831147162</v>
       </c>
       <c r="D10">
-        <v>0.0006385268429536431</v>
+        <v>0.06273387064213656</v>
       </c>
       <c r="E10">
-        <v>0.001408985211884227</v>
+        <v>12.02588307591697</v>
       </c>
       <c r="F10">
-        <v>64.96663555529688</v>
+        <v>359.9197958187191</v>
       </c>
       <c r="G10">
-        <v>85.62608463001595</v>
+        <v>346.8392000851493</v>
       </c>
       <c r="H10">
-        <v>304.212607936855</v>
+        <v>204.3228942277558</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -663,22 +663,22 @@
         <v>59052</v>
       </c>
       <c r="C11">
-        <v>6614.414754716297</v>
+        <v>43956.9850364541</v>
       </c>
       <c r="D11">
-        <v>0.001819826579376191</v>
+        <v>0.05971577227723555</v>
       </c>
       <c r="E11">
-        <v>0.001530819242879542</v>
+        <v>12.02508180746584</v>
       </c>
       <c r="F11">
-        <v>65.75573842825672</v>
+        <v>359.9166213847467</v>
       </c>
       <c r="G11">
-        <v>138.0935650821851</v>
+        <v>344.0643660362962</v>
       </c>
       <c r="H11">
-        <v>317.2536111258918</v>
+        <v>185.926507291015</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -689,22 +689,22 @@
         <v>59053</v>
       </c>
       <c r="C12">
-        <v>6612.557362670653</v>
+        <v>43948.48827688723</v>
       </c>
       <c r="D12">
-        <v>0.00257894960964442</v>
+        <v>0.05688111819039487</v>
       </c>
       <c r="E12">
-        <v>0.001602076388774004</v>
+        <v>12.02405765354397</v>
       </c>
       <c r="F12">
-        <v>65.53549298174828</v>
+        <v>359.9126073805401</v>
       </c>
       <c r="G12">
-        <v>181.1543528406269</v>
+        <v>340.8862339471931</v>
       </c>
       <c r="H12">
-        <v>343.1381665840294</v>
+        <v>167.9261773819659</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -715,22 +715,22 @@
         <v>59054</v>
       </c>
       <c r="C13">
-        <v>6610.674024196655</v>
+        <v>43942.49810860993</v>
       </c>
       <c r="D13">
-        <v>0.002647601493531468</v>
+        <v>0.05428357108363649</v>
       </c>
       <c r="E13">
-        <v>0.001629563385035704</v>
+        <v>12.02301015105876</v>
       </c>
       <c r="F13">
-        <v>63.84682441635856</v>
+        <v>359.9076369314582</v>
       </c>
       <c r="G13">
-        <v>226.8157712356486</v>
+        <v>337.3106258032668</v>
       </c>
       <c r="H13">
-        <v>10.4469012446131</v>
+        <v>150.3165015909183</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -741,22 +741,22 @@
         <v>59055</v>
       </c>
       <c r="C14">
-        <v>6608.431481356552</v>
+        <v>43941.58495963999</v>
       </c>
       <c r="D14">
-        <v>0.001901240470185699</v>
+        <v>0.05193064780992471</v>
       </c>
       <c r="E14">
-        <v>0.001634485148833741</v>
+        <v>12.02237961272155</v>
       </c>
       <c r="F14">
-        <v>60.10644551026308</v>
+        <v>359.9025744078812</v>
       </c>
       <c r="G14">
-        <v>278.0419273290412</v>
+        <v>333.3818706531784</v>
       </c>
       <c r="H14">
-        <v>36.93646269974559</v>
+        <v>133.052880342845</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -767,22 +767,22 @@
         <v>59056</v>
       </c>
       <c r="C15">
-        <v>6606.336433744818</v>
+        <v>43948.19115647306</v>
       </c>
       <c r="D15">
-        <v>0.0006523296702840888</v>
+        <v>0.04983751241754784</v>
       </c>
       <c r="E15">
-        <v>0.001648305714334753</v>
+        <v>12.02273901393056</v>
       </c>
       <c r="F15">
-        <v>54.45677760681205</v>
+        <v>359.8975177946494</v>
       </c>
       <c r="G15">
-        <v>356.6846865092987</v>
+        <v>329.1469938003042</v>
       </c>
       <c r="H15">
-        <v>40.76924160330088</v>
+        <v>116.0969573365786</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -793,22 +793,22 @@
         <v>59057</v>
       </c>
       <c r="C16">
-        <v>6603.906256243276</v>
+        <v>43961.28772680663</v>
       </c>
       <c r="D16">
-        <v>0.001137082878318151</v>
+        <v>0.04807649043664006</v>
       </c>
       <c r="E16">
-        <v>0.001698218880694067</v>
+        <v>12.02433354538696</v>
       </c>
       <c r="F16">
-        <v>47.41509952077594</v>
+        <v>359.8918988604249</v>
       </c>
       <c r="G16">
-        <v>169.9181654272036</v>
+        <v>324.6150222967912</v>
       </c>
       <c r="H16">
-        <v>314.4305787244089</v>
+        <v>99.45170475842885</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -819,22 +819,22 @@
         <v>59058</v>
       </c>
       <c r="C17">
-        <v>6601.492040409527</v>
+        <v>43977.53891259207</v>
       </c>
       <c r="D17">
-        <v>0.002264341781916578</v>
+        <v>0.04674403535636314</v>
       </c>
       <c r="E17">
-        <v>0.001801092926706885</v>
+        <v>12.02694479842731</v>
       </c>
       <c r="F17">
-        <v>40.47399791346469</v>
+        <v>359.8853692715119</v>
       </c>
       <c r="G17">
-        <v>237.1808419162982</v>
+        <v>319.7732397257866</v>
       </c>
       <c r="H17">
-        <v>337.1861269891878</v>
+        <v>83.13677757330605</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -845,22 +845,22 @@
         <v>59059</v>
       </c>
       <c r="C18">
-        <v>6598.781692649934</v>
+        <v>43993.71847771572</v>
       </c>
       <c r="D18">
-        <v>0.002489977677626065</v>
+        <v>0.04591599314053764</v>
       </c>
       <c r="E18">
-        <v>0.001937159912014795</v>
+        <v>12.0300672291565</v>
       </c>
       <c r="F18">
-        <v>34.51794967465862</v>
+        <v>359.8779795397414</v>
       </c>
       <c r="G18">
-        <v>299.0017234579398</v>
+        <v>314.6391120204829</v>
       </c>
       <c r="H18">
-        <v>7.851940761553649</v>
+        <v>67.13533391500847</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -871,22 +871,22 @@
         <v>59060</v>
       </c>
       <c r="C19">
-        <v>6595.889220648723</v>
+        <v>44007.96388212067</v>
       </c>
       <c r="D19">
-        <v>0.001630514901737824</v>
+        <v>0.04562886827066268</v>
       </c>
       <c r="E19">
-        <v>0.002084355776144812</v>
+        <v>12.03315273493227</v>
       </c>
       <c r="F19">
-        <v>30.08414649337276</v>
+        <v>359.8698172457474</v>
       </c>
       <c r="G19">
-        <v>6.12028124237453</v>
+        <v>309.2963304483774</v>
       </c>
       <c r="H19">
-        <v>35.40785920551909</v>
+        <v>51.36137830763253</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -897,22 +897,22 @@
         <v>59061</v>
       </c>
       <c r="C20">
-        <v>6592.724334413015</v>
+        <v>44019.45769678861</v>
       </c>
       <c r="D20">
-        <v>0.0006114426214093131</v>
+        <v>0.04587575953577627</v>
       </c>
       <c r="E20">
-        <v>0.002203790397208265</v>
+        <v>12.03577759683661</v>
       </c>
       <c r="F20">
-        <v>26.81945937894952</v>
+        <v>359.8605409743963</v>
       </c>
       <c r="G20">
-        <v>150.3562601438356</v>
+        <v>303.8859263077391</v>
       </c>
       <c r="H20">
-        <v>348.6933057543209</v>
+        <v>35.67223190354354</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -923,22 +923,22 @@
         <v>59062</v>
       </c>
       <c r="C21">
-        <v>6589.368484530962</v>
+        <v>44026.89518634499</v>
       </c>
       <c r="D21">
-        <v>0.00185453645460921</v>
+        <v>0.04660012231587037</v>
       </c>
       <c r="E21">
-        <v>0.002275839472620297</v>
+        <v>12.03766690748775</v>
       </c>
       <c r="F21">
-        <v>24.37372178458441</v>
+        <v>359.8491366828384</v>
       </c>
       <c r="G21">
-        <v>268.3767364317982</v>
+        <v>298.5641187941878</v>
       </c>
       <c r="H21">
-        <v>331.755766639022</v>
+        <v>19.9113086850147</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -949,22 +949,22 @@
         <v>59063</v>
       </c>
       <c r="C22">
-        <v>6585.455109840923</v>
+        <v>44027.52849164528</v>
       </c>
       <c r="D22">
-        <v>0.002343204009221537</v>
+        <v>0.04770474345257834</v>
       </c>
       <c r="E22">
-        <v>0.00228606817990818</v>
+        <v>12.03853204363651</v>
       </c>
       <c r="F22">
-        <v>22.11677786067263</v>
+        <v>359.834954652452</v>
       </c>
       <c r="G22">
-        <v>342.1250860258049</v>
+        <v>293.4484830268352</v>
       </c>
       <c r="H22">
-        <v>3.755443944955357</v>
+        <v>3.955460086282973</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -975,22 +975,22 @@
         <v>59064</v>
       </c>
       <c r="C23">
-        <v>6581.207132678753</v>
+        <v>44019.57855745432</v>
       </c>
       <c r="D23">
-        <v>0.001445990553309268</v>
+        <v>0.04910911283244555</v>
       </c>
       <c r="E23">
-        <v>0.002233922198514535</v>
+        <v>12.03826381725424</v>
       </c>
       <c r="F23">
-        <v>19.5944806369809</v>
+        <v>359.8180077584722</v>
       </c>
       <c r="G23">
-        <v>67.84262148699941</v>
+        <v>288.6456880815701</v>
       </c>
       <c r="H23">
-        <v>29.5175306024768</v>
+        <v>347.6867587425313</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1001,22 +1001,22 @@
         <v>59065</v>
       </c>
       <c r="C24">
-        <v>6576.004295954928</v>
+        <v>44005.33721374686</v>
       </c>
       <c r="D24">
-        <v>0.001056517615894602</v>
+        <v>0.05082035368399127</v>
       </c>
       <c r="E24">
-        <v>0.002133189633997346</v>
+        <v>12.03699438708556</v>
       </c>
       <c r="F24">
-        <v>16.38551831922317</v>
+        <v>359.7994230938338</v>
       </c>
       <c r="G24">
-        <v>240.2640205038526</v>
+        <v>284.2174017987414</v>
       </c>
       <c r="H24">
-        <v>335.5771048135437</v>
+        <v>331.0295610397946</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1027,22 +1027,22 @@
         <v>59066</v>
       </c>
       <c r="C25">
-        <v>6569.907619808296</v>
+        <v>43988.91072484953</v>
       </c>
       <c r="D25">
-        <v>0.002117942968827818</v>
+        <v>0.0528843890906392</v>
       </c>
       <c r="E25">
-        <v>0.002003655958552413</v>
+        <v>12.03509165691853</v>
       </c>
       <c r="F25">
-        <v>12.02014164137042</v>
+        <v>359.7795920226105</v>
       </c>
       <c r="G25">
-        <v>351.6657740915015</v>
+        <v>280.1926070384641</v>
       </c>
       <c r="H25">
-        <v>351.3268091525346</v>
+        <v>313.949811128245</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1053,22 +1053,22 @@
         <v>59067</v>
       </c>
       <c r="C26">
-        <v>6561.952544354626</v>
+        <v>43972.95479080756</v>
       </c>
       <c r="D26">
-        <v>0.001592894101747533</v>
+        <v>0.05531633952051064</v>
       </c>
       <c r="E26">
-        <v>0.001865574540939375</v>
+        <v>12.03286236213568</v>
       </c>
       <c r="F26">
-        <v>6.287746810303687</v>
+        <v>359.7585677743329</v>
       </c>
       <c r="G26">
-        <v>101.8073919695923</v>
+        <v>276.5701105590236</v>
       </c>
       <c r="H26">
-        <v>19.10837905296184</v>
+        <v>296.4500339972428</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1079,22 +1079,22 @@
         <v>59068</v>
       </c>
       <c r="C27">
-        <v>6549.524182676179</v>
+        <v>43958.77021089303</v>
       </c>
       <c r="D27">
-        <v>0.001335906117352796</v>
+        <v>0.05809038415772413</v>
       </c>
       <c r="E27">
-        <v>0.001743477698562465</v>
+        <v>12.03052312425284</v>
       </c>
       <c r="F27">
-        <v>359.2847641226712</v>
+        <v>359.7368695763114</v>
       </c>
       <c r="G27">
-        <v>288.1631547182398</v>
+        <v>273.3296047203135</v>
       </c>
       <c r="H27">
-        <v>345.3216728218833</v>
+        <v>278.5532502855147</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1105,22 +1105,22 @@
         <v>59069</v>
       </c>
       <c r="C28">
-        <v>6508.341444838642</v>
+        <v>43947.52000928263</v>
       </c>
       <c r="D28">
-        <v>0.001579789336693541</v>
+        <v>0.06115398655778372</v>
       </c>
       <c r="E28">
-        <v>0.001653472145106542</v>
+        <v>12.02828138905259</v>
       </c>
       <c r="F28">
-        <v>351.3139965116383</v>
+        <v>359.7156149196455</v>
       </c>
       <c r="G28">
-        <v>105.8312929408486</v>
+        <v>270.4342440782279</v>
       </c>
       <c r="H28">
-        <v>347.4933127684847</v>
+        <v>260.2986235759154</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,8839 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>59069.00072133668</v>
+        <v>59070</v>
       </c>
       <c r="C29">
-        <v>6508.122800420135</v>
+        <v>43940.71058336033</v>
       </c>
       <c r="D29">
-        <v>0.001572746270412157</v>
+        <v>0.06443617758879294</v>
       </c>
       <c r="E29">
-        <v>0.001653502122480329</v>
+        <v>12.02637681837767</v>
       </c>
       <c r="F29">
-        <v>351.3030099771777</v>
+        <v>359.6960200692498</v>
       </c>
       <c r="G29">
-        <v>110.2942982111756</v>
+        <v>267.8408011478647</v>
       </c>
       <c r="H29">
-        <v>347.3486676397831</v>
+        <v>241.7324368949019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>59071</v>
+      </c>
+      <c r="C30">
+        <v>43939.86432519092</v>
+      </c>
+      <c r="D30">
+        <v>0.06785704922573141</v>
+      </c>
+      <c r="E30">
+        <v>12.02504891955521</v>
+      </c>
+      <c r="F30">
+        <v>359.6788234955297</v>
+      </c>
+      <c r="G30">
+        <v>265.5149596096214</v>
+      </c>
+      <c r="H30">
+        <v>222.8944812642855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>59072</v>
+      </c>
+      <c r="C31">
+        <v>43945.69983731038</v>
+      </c>
+      <c r="D31">
+        <v>0.07134863728590862</v>
+      </c>
+      <c r="E31">
+        <v>12.02445583071443</v>
+      </c>
+      <c r="F31">
+        <v>359.6639483626227</v>
+      </c>
+      <c r="G31">
+        <v>263.4405712812853</v>
+      </c>
+      <c r="H31">
+        <v>203.809492191389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>59073</v>
+      </c>
+      <c r="C32">
+        <v>43957.2005736564</v>
+      </c>
+      <c r="D32">
+        <v>0.07488339441950416</v>
+      </c>
+      <c r="E32">
+        <v>12.02457983057525</v>
+      </c>
+      <c r="F32">
+        <v>359.6505726123139</v>
+      </c>
+      <c r="G32">
+        <v>261.615356859838</v>
+      </c>
+      <c r="H32">
+        <v>184.4898717624902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>59074</v>
+      </c>
+      <c r="C33">
+        <v>43971.5058006562</v>
+      </c>
+      <c r="D33">
+        <v>0.07848479921767865</v>
+      </c>
+      <c r="E33">
+        <v>12.02519060124083</v>
+      </c>
+      <c r="F33">
+        <v>359.6377567444728</v>
+      </c>
+      <c r="G33">
+        <v>260.0352348676127</v>
+      </c>
+      <c r="H33">
+        <v>164.9469545413009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>59075</v>
+      </c>
+      <c r="C34">
+        <v>43985.68832848506</v>
+      </c>
+      <c r="D34">
+        <v>0.08219134433057776</v>
+      </c>
+      <c r="E34">
+        <v>12.02596483224203</v>
+      </c>
+      <c r="F34">
+        <v>359.625199246398</v>
+      </c>
+      <c r="G34">
+        <v>258.6834063948606</v>
+      </c>
+      <c r="H34">
+        <v>145.1984185364313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>59076</v>
+      </c>
+      <c r="C35">
+        <v>43998.71285821114</v>
+      </c>
+      <c r="D35">
+        <v>0.0860099517370761</v>
+      </c>
+      <c r="E35">
+        <v>12.02666244266801</v>
+      </c>
+      <c r="F35">
+        <v>359.6129387455055</v>
+      </c>
+      <c r="G35">
+        <v>257.5348260055351</v>
+      </c>
+      <c r="H35">
+        <v>125.2672898759087</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>59077</v>
+      </c>
+      <c r="C36">
+        <v>44010.44840428953</v>
+      </c>
+      <c r="D36">
+        <v>0.08992282796664046</v>
+      </c>
+      <c r="E36">
+        <v>12.02710339095802</v>
+      </c>
+      <c r="F36">
+        <v>359.6002669262371</v>
+      </c>
+      <c r="G36">
+        <v>256.5563925685916</v>
+      </c>
+      <c r="H36">
+        <v>105.187641065897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>59078</v>
+      </c>
+      <c r="C37">
+        <v>44019.47972149498</v>
+      </c>
+      <c r="D37">
+        <v>0.09391046304734554</v>
+      </c>
+      <c r="E37">
+        <v>12.02704778247707</v>
+      </c>
+      <c r="F37">
+        <v>359.5855685792021</v>
+      </c>
+      <c r="G37">
+        <v>255.699273992855</v>
+      </c>
+      <c r="H37">
+        <v>85.01096392684795</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>59079</v>
+      </c>
+      <c r="C38">
+        <v>44022.94874767843</v>
+      </c>
+      <c r="D38">
+        <v>0.09795518591694322</v>
+      </c>
+      <c r="E38">
+        <v>12.02617257059751</v>
+      </c>
+      <c r="F38">
+        <v>359.5673878301592</v>
+      </c>
+      <c r="G38">
+        <v>254.9062010484492</v>
+      </c>
+      <c r="H38">
+        <v>64.79147801687473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>59080</v>
+      </c>
+      <c r="C39">
+        <v>44019.10008742291</v>
+      </c>
+      <c r="D39">
+        <v>0.1020733266648056</v>
+      </c>
+      <c r="E39">
+        <v>12.02408933194182</v>
+      </c>
+      <c r="F39">
+        <v>359.5460583645061</v>
+      </c>
+      <c r="G39">
+        <v>254.1378731349773</v>
+      </c>
+      <c r="H39">
+        <v>44.55242266894341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>59081</v>
+      </c>
+      <c r="C40">
+        <v>44006.33525578897</v>
+      </c>
+      <c r="D40">
+        <v>0.1060951035800418</v>
+      </c>
+      <c r="E40">
+        <v>12.02180062762789</v>
+      </c>
+      <c r="F40">
+        <v>359.5196881664564</v>
+      </c>
+      <c r="G40">
+        <v>253.4333979274121</v>
+      </c>
+      <c r="H40">
+        <v>24.26011963916957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>59082</v>
+      </c>
+      <c r="C41">
+        <v>43988.75641379213</v>
+      </c>
+      <c r="D41">
+        <v>0.1101268783248923</v>
+      </c>
+      <c r="E41">
+        <v>12.01939237490462</v>
+      </c>
+      <c r="F41">
+        <v>359.4910853684351</v>
+      </c>
+      <c r="G41">
+        <v>252.8191050808097</v>
+      </c>
+      <c r="H41">
+        <v>3.867393394905212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>59083</v>
+      </c>
+      <c r="C42">
+        <v>43970.74347604698</v>
+      </c>
+      <c r="D42">
+        <v>0.1142311683733424</v>
+      </c>
+      <c r="E42">
+        <v>12.01731325595062</v>
+      </c>
+      <c r="F42">
+        <v>359.4614945449226</v>
+      </c>
+      <c r="G42">
+        <v>252.3273749262931</v>
+      </c>
+      <c r="H42">
+        <v>343.3403868971113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>59084</v>
+      </c>
+      <c r="C43">
+        <v>43953.86235999729</v>
+      </c>
+      <c r="D43">
+        <v>0.1184208381478606</v>
+      </c>
+      <c r="E43">
+        <v>12.0156043166107</v>
+      </c>
+      <c r="F43">
+        <v>359.4320534649601</v>
+      </c>
+      <c r="G43">
+        <v>251.9609152313539</v>
+      </c>
+      <c r="H43">
+        <v>322.6797920852179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>59085</v>
+      </c>
+      <c r="C44">
+        <v>43938.74795138362</v>
+      </c>
+      <c r="D44">
+        <v>0.1226658254865906</v>
+      </c>
+      <c r="E44">
+        <v>12.01405988070548</v>
+      </c>
+      <c r="F44">
+        <v>359.4048410977726</v>
+      </c>
+      <c r="G44">
+        <v>251.6912056837537</v>
+      </c>
+      <c r="H44">
+        <v>301.913371174689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>59086</v>
+      </c>
+      <c r="C45">
+        <v>43929.04673511225</v>
+      </c>
+      <c r="D45">
+        <v>0.1269446964108955</v>
+      </c>
+      <c r="E45">
+        <v>12.01268783073052</v>
+      </c>
+      <c r="F45">
+        <v>359.3819469112485</v>
+      </c>
+      <c r="G45">
+        <v>251.4624334578043</v>
+      </c>
+      <c r="H45">
+        <v>281.0983563857761</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>59087</v>
+      </c>
+      <c r="C46">
+        <v>43927.33802870116</v>
+      </c>
+      <c r="D46">
+        <v>0.131220170083841</v>
+      </c>
+      <c r="E46">
+        <v>12.01158544392103</v>
+      </c>
+      <c r="F46">
+        <v>359.3635589112075</v>
+      </c>
+      <c r="G46">
+        <v>251.2384552456948</v>
+      </c>
+      <c r="H46">
+        <v>260.2824022364827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>59088</v>
+      </c>
+      <c r="C47">
+        <v>43932.38228603199</v>
+      </c>
+      <c r="D47">
+        <v>0.1354535256469818</v>
+      </c>
+      <c r="E47">
+        <v>12.01065536080756</v>
+      </c>
+      <c r="F47">
+        <v>359.3483623349804</v>
+      </c>
+      <c r="G47">
+        <v>251.0247885393622</v>
+      </c>
+      <c r="H47">
+        <v>239.4736281274235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>59089</v>
+      </c>
+      <c r="C48">
+        <v>43941.39737219518</v>
+      </c>
+      <c r="D48">
+        <v>0.1396353883260028</v>
+      </c>
+      <c r="E48">
+        <v>12.00967624079657</v>
+      </c>
+      <c r="F48">
+        <v>359.3347635863814</v>
+      </c>
+      <c r="G48">
+        <v>250.8424404681881</v>
+      </c>
+      <c r="H48">
+        <v>218.6592783811157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>59090</v>
+      </c>
+      <c r="C49">
+        <v>43952.16213115623</v>
+      </c>
+      <c r="D49">
+        <v>0.1437799953888742</v>
+      </c>
+      <c r="E49">
+        <v>12.00848224385203</v>
+      </c>
+      <c r="F49">
+        <v>359.3214362988692</v>
+      </c>
+      <c r="G49">
+        <v>250.7065041927884</v>
+      </c>
+      <c r="H49">
+        <v>197.8273652778232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>59091</v>
+      </c>
+      <c r="C50">
+        <v>43963.55710292348</v>
+      </c>
+      <c r="D50">
+        <v>0.1479075409745508</v>
+      </c>
+      <c r="E50">
+        <v>12.00705862466766</v>
+      </c>
+      <c r="F50">
+        <v>359.3073544984125</v>
+      </c>
+      <c r="G50">
+        <v>250.6226655030193</v>
+      </c>
+      <c r="H50">
+        <v>176.9735144182322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>59092</v>
+      </c>
+      <c r="C51">
+        <v>43975.19477852307</v>
+      </c>
+      <c r="D51">
+        <v>0.1520363175099803</v>
+      </c>
+      <c r="E51">
+        <v>12.00553735834854</v>
+      </c>
+      <c r="F51">
+        <v>359.2916548035877</v>
+      </c>
+      <c r="G51">
+        <v>250.5905839338479</v>
+      </c>
+      <c r="H51">
+        <v>156.1003424512539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>59093</v>
+      </c>
+      <c r="C52">
+        <v>43986.60341215465</v>
+      </c>
+      <c r="D52">
+        <v>0.1561862266070922</v>
+      </c>
+      <c r="E52">
+        <v>12.00411530821708</v>
+      </c>
+      <c r="F52">
+        <v>359.2735014089732</v>
+      </c>
+      <c r="G52">
+        <v>250.6054769157033</v>
+      </c>
+      <c r="H52">
+        <v>135.2165141735492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>59094</v>
+      </c>
+      <c r="C53">
+        <v>43996.28202878622</v>
+      </c>
+      <c r="D53">
+        <v>0.1603838002203164</v>
+      </c>
+      <c r="E53">
+        <v>12.0029224692017</v>
+      </c>
+      <c r="F53">
+        <v>359.2521108132618</v>
+      </c>
+      <c r="G53">
+        <v>250.6556732935472</v>
+      </c>
+      <c r="H53">
+        <v>114.3370008155546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>59095</v>
+      </c>
+      <c r="C54">
+        <v>44001.43339811621</v>
+      </c>
+      <c r="D54">
+        <v>0.1646528311362692</v>
+      </c>
+      <c r="E54">
+        <v>12.00191617243698</v>
+      </c>
+      <c r="F54">
+        <v>359.2271421643523</v>
+      </c>
+      <c r="G54">
+        <v>250.721472303977</v>
+      </c>
+      <c r="H54">
+        <v>93.4796437391593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>59096</v>
+      </c>
+      <c r="C55">
+        <v>44000.03544140203</v>
+      </c>
+      <c r="D55">
+        <v>0.1690514502360726</v>
+      </c>
+      <c r="E55">
+        <v>12.00070578064316</v>
+      </c>
+      <c r="F55">
+        <v>359.1995889906138</v>
+      </c>
+      <c r="G55">
+        <v>250.78433837932</v>
+      </c>
+      <c r="H55">
+        <v>72.64557924020318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>59097</v>
+      </c>
+      <c r="C56">
+        <v>43991.95236675892</v>
+      </c>
+      <c r="D56">
+        <v>0.1734768689239346</v>
+      </c>
+      <c r="E56">
+        <v>11.99948975176478</v>
+      </c>
+      <c r="F56">
+        <v>359.1710856132349</v>
+      </c>
+      <c r="G56">
+        <v>250.8488772317966</v>
+      </c>
+      <c r="H56">
+        <v>51.82488700682485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>59098</v>
+      </c>
+      <c r="C57">
+        <v>43976.41424511146</v>
+      </c>
+      <c r="D57">
+        <v>0.1778048793108147</v>
+      </c>
+      <c r="E57">
+        <v>11.99858794864095</v>
+      </c>
+      <c r="F57">
+        <v>359.1432390575545</v>
+      </c>
+      <c r="G57">
+        <v>250.9266938892326</v>
+      </c>
+      <c r="H57">
+        <v>31.00219706087599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>59099</v>
+      </c>
+      <c r="C58">
+        <v>43956.78666153549</v>
+      </c>
+      <c r="D58">
+        <v>0.1820680580432809</v>
+      </c>
+      <c r="E58">
+        <v>11.99797397758692</v>
+      </c>
+      <c r="F58">
+        <v>359.1179297751799</v>
+      </c>
+      <c r="G58">
+        <v>251.0401929027582</v>
+      </c>
+      <c r="H58">
+        <v>10.14197361405516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>59100</v>
+      </c>
+      <c r="C59">
+        <v>43935.66954747133</v>
+      </c>
+      <c r="D59">
+        <v>0.1862788622510165</v>
+      </c>
+      <c r="E59">
+        <v>11.9977046094683</v>
+      </c>
+      <c r="F59">
+        <v>359.0953999060279</v>
+      </c>
+      <c r="G59">
+        <v>251.2017799159757</v>
+      </c>
+      <c r="H59">
+        <v>349.2306059654774</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>59101</v>
+      </c>
+      <c r="C60">
+        <v>43916.61797564434</v>
+      </c>
+      <c r="D60">
+        <v>0.1904826386690156</v>
+      </c>
+      <c r="E60">
+        <v>11.99750877567893</v>
+      </c>
+      <c r="F60">
+        <v>359.0756091390277</v>
+      </c>
+      <c r="G60">
+        <v>251.4043502422321</v>
+      </c>
+      <c r="H60">
+        <v>328.2772058651514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>59102</v>
+      </c>
+      <c r="C61">
+        <v>43903.23111315941</v>
+      </c>
+      <c r="D61">
+        <v>0.1947069547919175</v>
+      </c>
+      <c r="E61">
+        <v>11.99708214947856</v>
+      </c>
+      <c r="F61">
+        <v>359.0594643127932</v>
+      </c>
+      <c r="G61">
+        <v>251.6214388884253</v>
+      </c>
+      <c r="H61">
+        <v>307.3133503151117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>59103</v>
+      </c>
+      <c r="C62">
+        <v>43897.69185341682</v>
+      </c>
+      <c r="D62">
+        <v>0.1989297588590701</v>
+      </c>
+      <c r="E62">
+        <v>11.99640122920703</v>
+      </c>
+      <c r="F62">
+        <v>359.0474181519518</v>
+      </c>
+      <c r="G62">
+        <v>251.8256854162666</v>
+      </c>
+      <c r="H62">
+        <v>286.3759880690146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>59104</v>
+      </c>
+      <c r="C63">
+        <v>43899.73328108837</v>
+      </c>
+      <c r="D63">
+        <v>0.203106374872282</v>
+      </c>
+      <c r="E63">
+        <v>11.99554016186307</v>
+      </c>
+      <c r="F63">
+        <v>359.0381001911124</v>
+      </c>
+      <c r="G63">
+        <v>252.0082150852993</v>
+      </c>
+      <c r="H63">
+        <v>265.4874827508808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>59105</v>
+      </c>
+      <c r="C64">
+        <v>43906.57574925748</v>
+      </c>
+      <c r="D64">
+        <v>0.2072210494959976</v>
+      </c>
+      <c r="E64">
+        <v>11.99442701757051</v>
+      </c>
+      <c r="F64">
+        <v>359.0291084923685</v>
+      </c>
+      <c r="G64">
+        <v>252.1811580778997</v>
+      </c>
+      <c r="H64">
+        <v>244.6478022507519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>59106</v>
+      </c>
+      <c r="C65">
+        <v>43914.74916569367</v>
+      </c>
+      <c r="D65">
+        <v>0.2112957076150732</v>
+      </c>
+      <c r="E65">
+        <v>11.99286695930411</v>
+      </c>
+      <c r="F65">
+        <v>359.0188980144053</v>
+      </c>
+      <c r="G65">
+        <v>252.3629738065825</v>
+      </c>
+      <c r="H65">
+        <v>223.8422778196077</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>59107</v>
+      </c>
+      <c r="C66">
+        <v>43923.00408808361</v>
+      </c>
+      <c r="D66">
+        <v>0.2153464136353708</v>
+      </c>
+      <c r="E66">
+        <v>11.99084431335966</v>
+      </c>
+      <c r="F66">
+        <v>359.0074298694083</v>
+      </c>
+      <c r="G66">
+        <v>252.5629224848431</v>
+      </c>
+      <c r="H66">
+        <v>203.0584926742333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>59108</v>
+      </c>
+      <c r="C67">
+        <v>43932.23081746833</v>
+      </c>
+      <c r="D67">
+        <v>0.2193704275986258</v>
+      </c>
+      <c r="E67">
+        <v>11.98870043918611</v>
+      </c>
+      <c r="F67">
+        <v>358.9946556278818</v>
+      </c>
+      <c r="G67">
+        <v>252.782783964183</v>
+      </c>
+      <c r="H67">
+        <v>182.2948732909277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>59109</v>
+      </c>
+      <c r="C68">
+        <v>43942.60268178696</v>
+      </c>
+      <c r="D68">
+        <v>0.2233846718954562</v>
+      </c>
+      <c r="E68">
+        <v>11.9869127369782</v>
+      </c>
+      <c r="F68">
+        <v>358.9797481871997</v>
+      </c>
+      <c r="G68">
+        <v>253.0245398083362</v>
+      </c>
+      <c r="H68">
+        <v>161.5562529675902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>59110</v>
+      </c>
+      <c r="C69">
+        <v>43952.31832322061</v>
+      </c>
+      <c r="D69">
+        <v>0.2274358120937095</v>
+      </c>
+      <c r="E69">
+        <v>11.98579724708283</v>
+      </c>
+      <c r="F69">
+        <v>358.9622815302802</v>
+      </c>
+      <c r="G69">
+        <v>253.2891128296405</v>
+      </c>
+      <c r="H69">
+        <v>140.8476410076191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>59111</v>
+      </c>
+      <c r="C70">
+        <v>43958.63512134334</v>
+      </c>
+      <c r="D70">
+        <v>0.2315659531686211</v>
+      </c>
+      <c r="E70">
+        <v>11.98539368456737</v>
+      </c>
+      <c r="F70">
+        <v>358.9433008110452</v>
+      </c>
+      <c r="G70">
+        <v>253.5725402937697</v>
+      </c>
+      <c r="H70">
+        <v>120.1710280476705</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>59112</v>
+      </c>
+      <c r="C71">
+        <v>43959.41685602252</v>
+      </c>
+      <c r="D71">
+        <v>0.2357780837398737</v>
+      </c>
+      <c r="E71">
+        <v>11.98552034662047</v>
+      </c>
+      <c r="F71">
+        <v>358.9250623622717</v>
+      </c>
+      <c r="G71">
+        <v>253.8667238522877</v>
+      </c>
+      <c r="H71">
+        <v>99.5244869704426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>59113</v>
+      </c>
+      <c r="C72">
+        <v>43954.87080113787</v>
+      </c>
+      <c r="D72">
+        <v>0.2400903781077262</v>
+      </c>
+      <c r="E72">
+        <v>11.98587357263198</v>
+      </c>
+      <c r="F72">
+        <v>358.9098814346313</v>
+      </c>
+      <c r="G72">
+        <v>254.1665060376939</v>
+      </c>
+      <c r="H72">
+        <v>78.89305881561835</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>59114</v>
+      </c>
+      <c r="C73">
+        <v>43946.29818096269</v>
+      </c>
+      <c r="D73">
+        <v>0.2443974492042064</v>
+      </c>
+      <c r="E73">
+        <v>11.98627866354194</v>
+      </c>
+      <c r="F73">
+        <v>358.8991389839072</v>
+      </c>
+      <c r="G73">
+        <v>254.4698327255081</v>
+      </c>
+      <c r="H73">
+        <v>58.27577905773838</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>59115</v>
+      </c>
+      <c r="C74">
+        <v>43930.55175926117</v>
+      </c>
+      <c r="D74">
+        <v>0.2485262251285362</v>
+      </c>
+      <c r="E74">
+        <v>11.98659074501374</v>
+      </c>
+      <c r="F74">
+        <v>358.8928887329996</v>
+      </c>
+      <c r="G74">
+        <v>254.7659523762395</v>
+      </c>
+      <c r="H74">
+        <v>37.69041204861378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>59116</v>
+      </c>
+      <c r="C75">
+        <v>43909.75873774967</v>
+      </c>
+      <c r="D75">
+        <v>0.2525082651282696</v>
+      </c>
+      <c r="E75">
+        <v>11.98663991344252</v>
+      </c>
+      <c r="F75">
+        <v>358.8906457632763</v>
+      </c>
+      <c r="G75">
+        <v>255.0631430446936</v>
+      </c>
+      <c r="H75">
+        <v>17.11678418080274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>59117</v>
+      </c>
+      <c r="C76">
+        <v>43885.56318898097</v>
+      </c>
+      <c r="D76">
+        <v>0.256357951710651</v>
+      </c>
+      <c r="E76">
+        <v>11.98651410591143</v>
+      </c>
+      <c r="F76">
+        <v>358.8913160099178</v>
+      </c>
+      <c r="G76">
+        <v>255.3669844580152</v>
+      </c>
+      <c r="H76">
+        <v>356.5466019591091</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>59118</v>
+      </c>
+      <c r="C77">
+        <v>43864.94289422621</v>
+      </c>
+      <c r="D77">
+        <v>0.2601980856175498</v>
+      </c>
+      <c r="E77">
+        <v>11.98627663929869</v>
+      </c>
+      <c r="F77">
+        <v>358.8921464066157</v>
+      </c>
+      <c r="G77">
+        <v>255.6786151777902</v>
+      </c>
+      <c r="H77">
+        <v>335.9822013284591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>59119</v>
+      </c>
+      <c r="C78">
+        <v>43853.25044277849</v>
+      </c>
+      <c r="D78">
+        <v>0.2641179169992287</v>
+      </c>
+      <c r="E78">
+        <v>11.98573540342061</v>
+      </c>
+      <c r="F78">
+        <v>358.8912602184161</v>
+      </c>
+      <c r="G78">
+        <v>255.9849315202766</v>
+      </c>
+      <c r="H78">
+        <v>315.449265052897</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>59120</v>
+      </c>
+      <c r="C79">
+        <v>43849.69734352742</v>
+      </c>
+      <c r="D79">
+        <v>0.2680964130823868</v>
+      </c>
+      <c r="E79">
+        <v>11.9849127319249</v>
+      </c>
+      <c r="F79">
+        <v>358.8885098446199</v>
+      </c>
+      <c r="G79">
+        <v>256.2781082323706</v>
+      </c>
+      <c r="H79">
+        <v>294.9679480822737</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>59121</v>
+      </c>
+      <c r="C80">
+        <v>43851.30237831941</v>
+      </c>
+      <c r="D80">
+        <v>0.2720853685464498</v>
+      </c>
+      <c r="E80">
+        <v>11.98398830557615</v>
+      </c>
+      <c r="F80">
+        <v>358.8839626563955</v>
+      </c>
+      <c r="G80">
+        <v>256.563657192046</v>
+      </c>
+      <c r="H80">
+        <v>274.5395276667709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>59122</v>
+      </c>
+      <c r="C81">
+        <v>43855.90049831232</v>
+      </c>
+      <c r="D81">
+        <v>0.2760567656563577</v>
+      </c>
+      <c r="E81">
+        <v>11.98313324173996</v>
+      </c>
+      <c r="F81">
+        <v>358.8780209121434</v>
+      </c>
+      <c r="G81">
+        <v>256.8510954014794</v>
+      </c>
+      <c r="H81">
+        <v>254.1565476349885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>59123</v>
+      </c>
+      <c r="C82">
+        <v>43862.4733340683</v>
+      </c>
+      <c r="D82">
+        <v>0.2799976218421439</v>
+      </c>
+      <c r="E82">
+        <v>11.9825137006945</v>
+      </c>
+      <c r="F82">
+        <v>358.8715491522166</v>
+      </c>
+      <c r="G82">
+        <v>257.1479259948681</v>
+      </c>
+      <c r="H82">
+        <v>233.8118247586556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>59124</v>
+      </c>
+      <c r="C83">
+        <v>43870.57803696224</v>
+      </c>
+      <c r="D83">
+        <v>0.2839004578448803</v>
+      </c>
+      <c r="E83">
+        <v>11.98228227390372</v>
+      </c>
+      <c r="F83">
+        <v>358.8655952248678</v>
+      </c>
+      <c r="G83">
+        <v>257.4589930601596</v>
+      </c>
+      <c r="H83">
+        <v>213.5016076020497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>59125</v>
+      </c>
+      <c r="C84">
+        <v>43879.69714454385</v>
+      </c>
+      <c r="D84">
+        <v>0.2877641305781609</v>
+      </c>
+      <c r="E84">
+        <v>11.98252651059786</v>
+      </c>
+      <c r="F84">
+        <v>358.8610586379133</v>
+      </c>
+      <c r="G84">
+        <v>257.7871089583081</v>
+      </c>
+      <c r="H84">
+        <v>193.2258276311317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>59126</v>
+      </c>
+      <c r="C85">
+        <v>43888.72419036603</v>
+      </c>
+      <c r="D85">
+        <v>0.2916004627010612</v>
+      </c>
+      <c r="E85">
+        <v>11.98320829953874</v>
+      </c>
+      <c r="F85">
+        <v>358.858551187296</v>
+      </c>
+      <c r="G85">
+        <v>258.1329391679416</v>
+      </c>
+      <c r="H85">
+        <v>172.986982709739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>59127</v>
+      </c>
+      <c r="C86">
+        <v>43895.86943218989</v>
+      </c>
+      <c r="D86">
+        <v>0.2954349314497334</v>
+      </c>
+      <c r="E86">
+        <v>11.98414590466579</v>
+      </c>
+      <c r="F86">
+        <v>358.8586214750443</v>
+      </c>
+      <c r="G86">
+        <v>258.4941038895586</v>
+      </c>
+      <c r="H86">
+        <v>152.7879538200499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>59128</v>
+      </c>
+      <c r="C87">
+        <v>43899.33571894927</v>
+      </c>
+      <c r="D87">
+        <v>0.2992906002410334</v>
+      </c>
+      <c r="E87">
+        <v>11.98508974658152</v>
+      </c>
+      <c r="F87">
+        <v>358.8622021547405</v>
+      </c>
+      <c r="G87">
+        <v>258.8650668491824</v>
+      </c>
+      <c r="H87">
+        <v>132.6294168278866</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>59129</v>
+      </c>
+      <c r="C88">
+        <v>43898.35080667425</v>
+      </c>
+      <c r="D88">
+        <v>0.3031649251899638</v>
+      </c>
+      <c r="E88">
+        <v>11.98585336533215</v>
+      </c>
+      <c r="F88">
+        <v>358.8706188140592</v>
+      </c>
+      <c r="G88">
+        <v>259.2392235402358</v>
+      </c>
+      <c r="H88">
+        <v>112.5090213385669</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>59130</v>
+      </c>
+      <c r="C89">
+        <v>43893.25676209667</v>
+      </c>
+      <c r="D89">
+        <v>0.3070272945648167</v>
+      </c>
+      <c r="E89">
+        <v>11.9863552233029</v>
+      </c>
+      <c r="F89">
+        <v>358.8848128107559</v>
+      </c>
+      <c r="G89">
+        <v>259.6111336939873</v>
+      </c>
+      <c r="H89">
+        <v>92.42405234022601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>59131</v>
+      </c>
+      <c r="C90">
+        <v>43888.36167789099</v>
+      </c>
+      <c r="D90">
+        <v>0.3109684774535436</v>
+      </c>
+      <c r="E90">
+        <v>11.98699974228857</v>
+      </c>
+      <c r="F90">
+        <v>358.9052281778665</v>
+      </c>
+      <c r="G90">
+        <v>259.9874645997126</v>
+      </c>
+      <c r="H90">
+        <v>72.34629600108076</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>59132</v>
+      </c>
+      <c r="C91">
+        <v>43875.18790378314</v>
+      </c>
+      <c r="D91">
+        <v>0.3146905700166046</v>
+      </c>
+      <c r="E91">
+        <v>11.98675792483954</v>
+      </c>
+      <c r="F91">
+        <v>358.9292427715308</v>
+      </c>
+      <c r="G91">
+        <v>260.3398617246694</v>
+      </c>
+      <c r="H91">
+        <v>52.33958452914872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>59133</v>
+      </c>
+      <c r="C92">
+        <v>43856.40128595895</v>
+      </c>
+      <c r="D92">
+        <v>0.3182944192010161</v>
+      </c>
+      <c r="E92">
+        <v>11.98590566793478</v>
+      </c>
+      <c r="F92">
+        <v>358.9558177216034</v>
+      </c>
+      <c r="G92">
+        <v>260.6755930194293</v>
+      </c>
+      <c r="H92">
+        <v>32.37397739324251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>59134</v>
+      </c>
+      <c r="C93">
+        <v>43832.21941389512</v>
+      </c>
+      <c r="D93">
+        <v>0.321773105587748</v>
+      </c>
+      <c r="E93">
+        <v>11.98454119390573</v>
+      </c>
+      <c r="F93">
+        <v>358.9842272164809</v>
+      </c>
+      <c r="G93">
+        <v>260.9977175972347</v>
+      </c>
+      <c r="H93">
+        <v>12.4415004325321</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>59135</v>
+      </c>
+      <c r="C94">
+        <v>43808.25108990589</v>
+      </c>
+      <c r="D94">
+        <v>0.3252154053671989</v>
+      </c>
+      <c r="E94">
+        <v>11.98344836902464</v>
+      </c>
+      <c r="F94">
+        <v>359.0125759910354</v>
+      </c>
+      <c r="G94">
+        <v>261.3186859192127</v>
+      </c>
+      <c r="H94">
+        <v>352.5289635028315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>59136</v>
+      </c>
+      <c r="C95">
+        <v>43792.87736439621</v>
+      </c>
+      <c r="D95">
+        <v>0.3287747618740616</v>
+      </c>
+      <c r="E95">
+        <v>11.98304511098329</v>
+      </c>
+      <c r="F95">
+        <v>359.0358348684949</v>
+      </c>
+      <c r="G95">
+        <v>261.6439696558774</v>
+      </c>
+      <c r="H95">
+        <v>332.6424796605371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>59137</v>
+      </c>
+      <c r="C96">
+        <v>43787.18176805062</v>
+      </c>
+      <c r="D96">
+        <v>0.332484995440014</v>
+      </c>
+      <c r="E96">
+        <v>11.98307823513581</v>
+      </c>
+      <c r="F96">
+        <v>359.0538416112539</v>
+      </c>
+      <c r="G96">
+        <v>261.9702632206798</v>
+      </c>
+      <c r="H96">
+        <v>312.797752943657</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>59138</v>
+      </c>
+      <c r="C97">
+        <v>43786.45939251545</v>
+      </c>
+      <c r="D97">
+        <v>0.3362678061508936</v>
+      </c>
+      <c r="E97">
+        <v>11.98354624113797</v>
+      </c>
+      <c r="F97">
+        <v>359.0701520954436</v>
+      </c>
+      <c r="G97">
+        <v>262.3021986547397</v>
+      </c>
+      <c r="H97">
+        <v>292.9912966641868</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>59139</v>
+      </c>
+      <c r="C98">
+        <v>43789.03090789498</v>
+      </c>
+      <c r="D98">
+        <v>0.3400365856592863</v>
+      </c>
+      <c r="E98">
+        <v>11.98451533942332</v>
+      </c>
+      <c r="F98">
+        <v>359.0884274382796</v>
+      </c>
+      <c r="G98">
+        <v>262.6415159466163</v>
+      </c>
+      <c r="H98">
+        <v>273.2160932917066</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>59140</v>
+      </c>
+      <c r="C99">
+        <v>43795.53148401196</v>
+      </c>
+      <c r="D99">
+        <v>0.3437254546414343</v>
+      </c>
+      <c r="E99">
+        <v>11.98603663414895</v>
+      </c>
+      <c r="F99">
+        <v>359.1108258699464</v>
+      </c>
+      <c r="G99">
+        <v>262.9863683682772</v>
+      </c>
+      <c r="H99">
+        <v>253.4756485373179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>59141</v>
+      </c>
+      <c r="C100">
+        <v>43804.8986455044</v>
+      </c>
+      <c r="D100">
+        <v>0.3473049144413656</v>
+      </c>
+      <c r="E100">
+        <v>11.98792762665941</v>
+      </c>
+      <c r="F100">
+        <v>359.1376915291814</v>
+      </c>
+      <c r="G100">
+        <v>263.3388652856574</v>
+      </c>
+      <c r="H100">
+        <v>233.7754107538604</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>59142</v>
+      </c>
+      <c r="C101">
+        <v>43814.73081060578</v>
+      </c>
+      <c r="D101">
+        <v>0.350781351803395</v>
+      </c>
+      <c r="E101">
+        <v>11.98977569852026</v>
+      </c>
+      <c r="F101">
+        <v>359.1684602543379</v>
+      </c>
+      <c r="G101">
+        <v>263.7014570653757</v>
+      </c>
+      <c r="H101">
+        <v>214.1179363139861</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>59143</v>
+      </c>
+      <c r="C102">
+        <v>43822.97290514949</v>
+      </c>
+      <c r="D102">
+        <v>0.3541786897870716</v>
+      </c>
+      <c r="E102">
+        <v>11.99115935365449</v>
+      </c>
+      <c r="F102">
+        <v>359.2023269651399</v>
+      </c>
+      <c r="G102">
+        <v>264.0730908439808</v>
+      </c>
+      <c r="H102">
+        <v>194.5039668073465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>59144</v>
+      </c>
+      <c r="C103">
+        <v>43828.62946156255</v>
+      </c>
+      <c r="D103">
+        <v>0.3575226604164826</v>
+      </c>
+      <c r="E103">
+        <v>11.99182167587329</v>
+      </c>
+      <c r="F103">
+        <v>359.2385182711899</v>
+      </c>
+      <c r="G103">
+        <v>264.4498722888483</v>
+      </c>
+      <c r="H103">
+        <v>174.9336965832026</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>59145</v>
+      </c>
+      <c r="C104">
+        <v>43831.62397571413</v>
+      </c>
+      <c r="D104">
+        <v>0.3608340814533721</v>
+      </c>
+      <c r="E104">
+        <v>11.99171523509824</v>
+      </c>
+      <c r="F104">
+        <v>359.2764015688072</v>
+      </c>
+      <c r="G104">
+        <v>264.8273573695202</v>
+      </c>
+      <c r="H104">
+        <v>155.4070003621736</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>59146</v>
+      </c>
+      <c r="C105">
+        <v>43832.34104607244</v>
+      </c>
+      <c r="D105">
+        <v>0.3641283461188021</v>
+      </c>
+      <c r="E105">
+        <v>11.99096184767503</v>
+      </c>
+      <c r="F105">
+        <v>359.3155184087033</v>
+      </c>
+      <c r="G105">
+        <v>265.2021504823799</v>
+      </c>
+      <c r="H105">
+        <v>135.9232311131926</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>59147</v>
+      </c>
+      <c r="C106">
+        <v>43831.13153679346</v>
+      </c>
+      <c r="D106">
+        <v>0.3674176510589746</v>
+      </c>
+      <c r="E106">
+        <v>11.98978069394982</v>
+      </c>
+      <c r="F106">
+        <v>359.3555598149929</v>
+      </c>
+      <c r="G106">
+        <v>265.5722281054415</v>
+      </c>
+      <c r="H106">
+        <v>116.481169793133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>59148</v>
+      </c>
+      <c r="C107">
+        <v>43827.83459749771</v>
+      </c>
+      <c r="D107">
+        <v>0.3707134837986529</v>
+      </c>
+      <c r="E107">
+        <v>11.98841025284438</v>
+      </c>
+      <c r="F107">
+        <v>359.3963214690058</v>
+      </c>
+      <c r="G107">
+        <v>265.9361661859233</v>
+      </c>
+      <c r="H107">
+        <v>97.07919527606539</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>59149</v>
+      </c>
+      <c r="C108">
+        <v>43824.24028645325</v>
+      </c>
+      <c r="D108">
+        <v>0.3740996973771571</v>
+      </c>
+      <c r="E108">
+        <v>11.9876594418285</v>
+      </c>
+      <c r="F108">
+        <v>359.4397361060593</v>
+      </c>
+      <c r="G108">
+        <v>266.2986048927131</v>
+      </c>
+      <c r="H108">
+        <v>77.69506050670867</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>59150</v>
+      </c>
+      <c r="C109">
+        <v>43812.62314562548</v>
+      </c>
+      <c r="D109">
+        <v>0.3774252319712265</v>
+      </c>
+      <c r="E109">
+        <v>11.98634511957232</v>
+      </c>
+      <c r="F109">
+        <v>359.4821617459676</v>
+      </c>
+      <c r="G109">
+        <v>266.6424021385911</v>
+      </c>
+      <c r="H109">
+        <v>58.36663930699136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>59151</v>
+      </c>
+      <c r="C110">
+        <v>43794.79482391876</v>
+      </c>
+      <c r="D110">
+        <v>0.3807537928436028</v>
+      </c>
+      <c r="E110">
+        <v>11.98516067146757</v>
+      </c>
+      <c r="F110">
+        <v>359.52683571035</v>
+      </c>
+      <c r="G110">
+        <v>266.9742596276892</v>
+      </c>
+      <c r="H110">
+        <v>39.05854456061348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>59152</v>
+      </c>
+      <c r="C111">
+        <v>43772.29977796286</v>
+      </c>
+      <c r="D111">
+        <v>0.3840641377693447</v>
+      </c>
+      <c r="E111">
+        <v>11.98419241390231</v>
+      </c>
+      <c r="F111">
+        <v>359.5764886464595</v>
+      </c>
+      <c r="G111">
+        <v>267.300389748427</v>
+      </c>
+      <c r="H111">
+        <v>19.75062231383272</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>59153</v>
+      </c>
+      <c r="C112">
+        <v>43750.50102646986</v>
+      </c>
+      <c r="D112">
+        <v>0.3873688706856291</v>
+      </c>
+      <c r="E112">
+        <v>11.98404215167098</v>
+      </c>
+      <c r="F112">
+        <v>359.6349076724371</v>
+      </c>
+      <c r="G112">
+        <v>267.6316187110972</v>
+      </c>
+      <c r="H112">
+        <v>0.4233490314830742</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>59154</v>
+      </c>
+      <c r="C113">
+        <v>43736.30321052206</v>
+      </c>
+      <c r="D113">
+        <v>0.3907233199545051</v>
+      </c>
+      <c r="E113">
+        <v>11.98558325222771</v>
+      </c>
+      <c r="F113">
+        <v>359.6986264610672</v>
+      </c>
+      <c r="G113">
+        <v>267.9776485172258</v>
+      </c>
+      <c r="H113">
+        <v>341.0734962763306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>59155</v>
+      </c>
+      <c r="C114">
+        <v>43731.94495387399</v>
+      </c>
+      <c r="D114">
+        <v>0.3941286018746802</v>
+      </c>
+      <c r="E114">
+        <v>11.98780431272218</v>
+      </c>
+      <c r="F114">
+        <v>359.7640734313284</v>
+      </c>
+      <c r="G114">
+        <v>268.3344531708648</v>
+      </c>
+      <c r="H114">
+        <v>321.713500871788</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>59156</v>
+      </c>
+      <c r="C115">
+        <v>43735.72258974545</v>
+      </c>
+      <c r="D115">
+        <v>0.3975132752275743</v>
+      </c>
+      <c r="E115">
+        <v>11.99015177271306</v>
+      </c>
+      <c r="F115">
+        <v>359.8346205704688</v>
+      </c>
+      <c r="G115">
+        <v>268.6905699889801</v>
+      </c>
+      <c r="H115">
+        <v>302.3521231317434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>59157</v>
+      </c>
+      <c r="C116">
+        <v>43745.0030036684</v>
+      </c>
+      <c r="D116">
+        <v>0.4007945004909569</v>
+      </c>
+      <c r="E116">
+        <v>11.99249531688202</v>
+      </c>
+      <c r="F116">
+        <v>359.9107589822364</v>
+      </c>
+      <c r="G116">
+        <v>269.042306779381</v>
+      </c>
+      <c r="H116">
+        <v>282.9943747842632</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>59158</v>
+      </c>
+      <c r="C117">
+        <v>43757.46892920672</v>
+      </c>
+      <c r="D117">
+        <v>0.4039269011765413</v>
+      </c>
+      <c r="E117">
+        <v>11.99456944486935</v>
+      </c>
+      <c r="F117">
+        <v>359.9905482928712</v>
+      </c>
+      <c r="G117">
+        <v>269.3906861486896</v>
+      </c>
+      <c r="H117">
+        <v>263.646896113981</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>59159</v>
+      </c>
+      <c r="C118">
+        <v>43771.00686105994</v>
+      </c>
+      <c r="D118">
+        <v>0.406916412701187</v>
+      </c>
+      <c r="E118">
+        <v>11.99611837455834</v>
+      </c>
+      <c r="F118">
+        <v>0.07144759457285649</v>
+      </c>
+      <c r="G118">
+        <v>269.7388777991234</v>
+      </c>
+      <c r="H118">
+        <v>244.3143387644482</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>59160</v>
+      </c>
+      <c r="C119">
+        <v>43783.36089935803</v>
+      </c>
+      <c r="D119">
+        <v>0.4098030724060426</v>
+      </c>
+      <c r="E119">
+        <v>11.99687463078048</v>
+      </c>
+      <c r="F119">
+        <v>0.1512792515854097</v>
+      </c>
+      <c r="G119">
+        <v>270.089600911207</v>
+      </c>
+      <c r="H119">
+        <v>224.9975812229613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>59161</v>
+      </c>
+      <c r="C120">
+        <v>43792.99509687322</v>
+      </c>
+      <c r="D120">
+        <v>0.4126331934855332</v>
+      </c>
+      <c r="E120">
+        <v>11.99664911461163</v>
+      </c>
+      <c r="F120">
+        <v>0.2291735223544848</v>
+      </c>
+      <c r="G120">
+        <v>270.4428825702127</v>
+      </c>
+      <c r="H120">
+        <v>205.6936846636538</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>59162</v>
+      </c>
+      <c r="C121">
+        <v>43799.95977440417</v>
+      </c>
+      <c r="D121">
+        <v>0.4154350128432116</v>
+      </c>
+      <c r="E121">
+        <v>11.99549398504743</v>
+      </c>
+      <c r="F121">
+        <v>0.3053369219431986</v>
+      </c>
+      <c r="G121">
+        <v>270.7962376458746</v>
+      </c>
+      <c r="H121">
+        <v>186.3990694887866</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>59163</v>
+      </c>
+      <c r="C122">
+        <v>43805.36243095486</v>
+      </c>
+      <c r="D122">
+        <v>0.4182234509993561</v>
+      </c>
+      <c r="E122">
+        <v>11.99373437238672</v>
+      </c>
+      <c r="F122">
+        <v>0.379985417369485</v>
+      </c>
+      <c r="G122">
+        <v>271.1474750024768</v>
+      </c>
+      <c r="H122">
+        <v>167.112579957255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>59164</v>
+      </c>
+      <c r="C123">
+        <v>43809.98378015368</v>
+      </c>
+      <c r="D123">
+        <v>0.4210212424059368</v>
+      </c>
+      <c r="E123">
+        <v>11.99180345320777</v>
+      </c>
+      <c r="F123">
+        <v>0.4531231068413036</v>
+      </c>
+      <c r="G123">
+        <v>271.4965544985118</v>
+      </c>
+      <c r="H123">
+        <v>147.8348222133316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>59165</v>
+      </c>
+      <c r="C124">
+        <v>43813.4509097743</v>
+      </c>
+      <c r="D124">
+        <v>0.4238634388185606</v>
+      </c>
+      <c r="E124">
+        <v>11.99002852570088</v>
+      </c>
+      <c r="F124">
+        <v>0.5253912418666606</v>
+      </c>
+      <c r="G124">
+        <v>271.8447700319504</v>
+      </c>
+      <c r="H124">
+        <v>128.5649547045327</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>59166</v>
+      </c>
+      <c r="C125">
+        <v>43814.34497638587</v>
+      </c>
+      <c r="D125">
+        <v>0.4267797064979774</v>
+      </c>
+      <c r="E125">
+        <v>11.98850202564478</v>
+      </c>
+      <c r="F125">
+        <v>0.5988211591996921</v>
+      </c>
+      <c r="G125">
+        <v>272.1928476614288</v>
+      </c>
+      <c r="H125">
+        <v>109.298067755014</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>59167</v>
+      </c>
+      <c r="C126">
+        <v>43810.90201644132</v>
+      </c>
+      <c r="D126">
+        <v>0.4297708032996138</v>
+      </c>
+      <c r="E126">
+        <v>11.98708441870712</v>
+      </c>
+      <c r="F126">
+        <v>0.6766901541225627</v>
+      </c>
+      <c r="G126">
+        <v>272.5397545641664</v>
+      </c>
+      <c r="H126">
+        <v>90.02488230170947</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>59168</v>
+      </c>
+      <c r="C127">
+        <v>43801.92813286161</v>
+      </c>
+      <c r="D127">
+        <v>0.4327965225156193</v>
+      </c>
+      <c r="E127">
+        <v>11.98553426507558</v>
+      </c>
+      <c r="F127">
+        <v>0.7625109873469331</v>
+      </c>
+      <c r="G127">
+        <v>272.883101239355</v>
+      </c>
+      <c r="H127">
+        <v>70.73385615720389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>59169</v>
+      </c>
+      <c r="C128">
+        <v>43787.5605332885</v>
+      </c>
+      <c r="D128">
+        <v>0.4357848696110365</v>
+      </c>
+      <c r="E128">
+        <v>11.98368758920208</v>
+      </c>
+      <c r="F128">
+        <v>0.858674338415621</v>
+      </c>
+      <c r="G128">
+        <v>273.2211309192791</v>
+      </c>
+      <c r="H128">
+        <v>51.41456207660682</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>59170</v>
+      </c>
+      <c r="C129">
+        <v>43769.54017193598</v>
+      </c>
+      <c r="D129">
+        <v>0.438661931250216</v>
+      </c>
+      <c r="E129">
+        <v>11.98150821042131</v>
+      </c>
+      <c r="F129">
+        <v>0.9654780665430011</v>
+      </c>
+      <c r="G129">
+        <v>273.5547536387883</v>
+      </c>
+      <c r="H129">
+        <v>32.06076844443017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>59171</v>
+      </c>
+      <c r="C130">
+        <v>43750.59761624331</v>
+      </c>
+      <c r="D130">
+        <v>0.441385074966237</v>
+      </c>
+      <c r="E130">
+        <v>11.97888287551755</v>
+      </c>
+      <c r="F130">
+        <v>1.082425880937315</v>
+      </c>
+      <c r="G130">
+        <v>273.8848234073544</v>
+      </c>
+      <c r="H130">
+        <v>12.67301361030647</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>59172</v>
+      </c>
+      <c r="C131">
+        <v>43734.43266517502</v>
+      </c>
+      <c r="D131">
+        <v>0.4439593777181173</v>
+      </c>
+      <c r="E131">
+        <v>11.97663368453443</v>
+      </c>
+      <c r="F131">
+        <v>1.209826421545143</v>
+      </c>
+      <c r="G131">
+        <v>274.2092844275282</v>
+      </c>
+      <c r="H131">
+        <v>353.2583075764612</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>59173</v>
+      </c>
+      <c r="C132">
+        <v>43728.88644397086</v>
+      </c>
+      <c r="D132">
+        <v>0.4464851378860165</v>
+      </c>
+      <c r="E132">
+        <v>11.97561387589868</v>
+      </c>
+      <c r="F132">
+        <v>1.334671392991295</v>
+      </c>
+      <c r="G132">
+        <v>274.5349995599206</v>
+      </c>
+      <c r="H132">
+        <v>333.8346206737756</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>59174</v>
+      </c>
+      <c r="C133">
+        <v>43735.05689598877</v>
+      </c>
+      <c r="D133">
+        <v>0.4490005766439962</v>
+      </c>
+      <c r="E133">
+        <v>11.97453093501325</v>
+      </c>
+      <c r="F133">
+        <v>1.452658179251991</v>
+      </c>
+      <c r="G133">
+        <v>274.8534270768882</v>
+      </c>
+      <c r="H133">
+        <v>314.430542356859</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>59175</v>
+      </c>
+      <c r="C134">
+        <v>43746.64827139566</v>
+      </c>
+      <c r="D134">
+        <v>0.451461270077644</v>
+      </c>
+      <c r="E134">
+        <v>11.97335954083815</v>
+      </c>
+      <c r="F134">
+        <v>1.565332867352101</v>
+      </c>
+      <c r="G134">
+        <v>275.163295436521</v>
+      </c>
+      <c r="H134">
+        <v>295.054733650894</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>59176</v>
+      </c>
+      <c r="C135">
+        <v>43759.20686408373</v>
+      </c>
+      <c r="D135">
+        <v>0.4538636887627367</v>
+      </c>
+      <c r="E135">
+        <v>11.97211096045588</v>
+      </c>
+      <c r="F135">
+        <v>1.673031503216904</v>
+      </c>
+      <c r="G135">
+        <v>275.4714863266997</v>
+      </c>
+      <c r="H135">
+        <v>275.7013027980593</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>59177</v>
+      </c>
+      <c r="C136">
+        <v>43770.92789913953</v>
+      </c>
+      <c r="D136">
+        <v>0.4562309644884139</v>
+      </c>
+      <c r="E136">
+        <v>11.97073189546362</v>
+      </c>
+      <c r="F136">
+        <v>1.776789124080946</v>
+      </c>
+      <c r="G136">
+        <v>275.7824360309133</v>
+      </c>
+      <c r="H136">
+        <v>256.3624083790651</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>59178</v>
+      </c>
+      <c r="C137">
+        <v>43781.33330817385</v>
+      </c>
+      <c r="D137">
+        <v>0.4585855812881692</v>
+      </c>
+      <c r="E137">
+        <v>11.96920334893685</v>
+      </c>
+      <c r="F137">
+        <v>1.878237039771543</v>
+      </c>
+      <c r="G137">
+        <v>276.0978925867529</v>
+      </c>
+      <c r="H137">
+        <v>237.0315534478024</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>59179</v>
+      </c>
+      <c r="C138">
+        <v>43790.49838647871</v>
+      </c>
+      <c r="D138">
+        <v>0.4609405903954563</v>
+      </c>
+      <c r="E138">
+        <v>11.96753355453994</v>
+      </c>
+      <c r="F138">
+        <v>1.97924845139576</v>
+      </c>
+      <c r="G138">
+        <v>276.4183303411266</v>
+      </c>
+      <c r="H138">
+        <v>217.7040057688883</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>59180</v>
+      </c>
+      <c r="C139">
+        <v>43798.63226932716</v>
+      </c>
+      <c r="D139">
+        <v>0.4632994761836406</v>
+      </c>
+      <c r="E139">
+        <v>11.96572176158636</v>
+      </c>
+      <c r="F139">
+        <v>2.081661441769907</v>
+      </c>
+      <c r="G139">
+        <v>276.7438522416568</v>
+      </c>
+      <c r="H139">
+        <v>198.3767026002042</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>59181</v>
+      </c>
+      <c r="C140">
+        <v>43805.75054030458</v>
+      </c>
+      <c r="D140">
+        <v>0.4656600254526141</v>
+      </c>
+      <c r="E140">
+        <v>11.96371297361471</v>
+      </c>
+      <c r="F140">
+        <v>2.187063531252787</v>
+      </c>
+      <c r="G140">
+        <v>277.0744800675985</v>
+      </c>
+      <c r="H140">
+        <v>179.0479849090515</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>59182</v>
+      </c>
+      <c r="C141">
+        <v>43811.37004526885</v>
+      </c>
+      <c r="D141">
+        <v>0.4680199991996023</v>
+      </c>
+      <c r="E141">
+        <v>11.96135374089395</v>
+      </c>
+      <c r="F141">
+        <v>2.296717202564154</v>
+      </c>
+      <c r="G141">
+        <v>277.4098331231534</v>
+      </c>
+      <c r="H141">
+        <v>159.7169307406677</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>59183</v>
+      </c>
+      <c r="C142">
+        <v>43814.40145975559</v>
+      </c>
+      <c r="D142">
+        <v>0.4703798541381602</v>
+      </c>
+      <c r="E142">
+        <v>11.95837896808101</v>
+      </c>
+      <c r="F142">
+        <v>2.411780395357034</v>
+      </c>
+      <c r="G142">
+        <v>277.7483248506387</v>
+      </c>
+      <c r="H142">
+        <v>140.3819641635345</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>59184</v>
+      </c>
+      <c r="C143">
+        <v>43813.57493532078</v>
+      </c>
+      <c r="D143">
+        <v>0.4727354623780463</v>
+      </c>
+      <c r="E143">
+        <v>11.9544768771988</v>
+      </c>
+      <c r="F143">
+        <v>2.533708428063144</v>
+      </c>
+      <c r="G143">
+        <v>278.086657053467</v>
+      </c>
+      <c r="H143">
+        <v>121.0392362106379</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>59185</v>
+      </c>
+      <c r="C144">
+        <v>43808.31094563174</v>
+      </c>
+      <c r="D144">
+        <v>0.4750633904762424</v>
+      </c>
+      <c r="E144">
+        <v>11.94942797697411</v>
+      </c>
+      <c r="F144">
+        <v>2.664137495434016</v>
+      </c>
+      <c r="G144">
+        <v>278.420727752809</v>
+      </c>
+      <c r="H144">
+        <v>101.6828049269594</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>59186</v>
+      </c>
+      <c r="C145">
+        <v>43799.10624138443</v>
+      </c>
+      <c r="D145">
+        <v>0.4773180313524507</v>
+      </c>
+      <c r="E145">
+        <v>11.943209902038</v>
+      </c>
+      <c r="F145">
+        <v>2.803793091346589</v>
+      </c>
+      <c r="G145">
+        <v>278.7474215115964</v>
+      </c>
+      <c r="H145">
+        <v>82.30794182908659</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>59187</v>
+      </c>
+      <c r="C146">
+        <v>43786.84641768681</v>
+      </c>
+      <c r="D146">
+        <v>0.4794502915897484</v>
+      </c>
+      <c r="E146">
+        <v>11.93599014265656</v>
+      </c>
+      <c r="F146">
+        <v>2.951398854727096</v>
+      </c>
+      <c r="G146">
+        <v>279.0651381663856</v>
+      </c>
+      <c r="H146">
+        <v>62.91474779524286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>59188</v>
+      </c>
+      <c r="C147">
+        <v>43771.92357728432</v>
+      </c>
+      <c r="D147">
+        <v>0.4814298472449806</v>
+      </c>
+      <c r="E147">
+        <v>11.92806526016565</v>
+      </c>
+      <c r="F147">
+        <v>3.103813182051106</v>
+      </c>
+      <c r="G147">
+        <v>279.3729642143118</v>
+      </c>
+      <c r="H147">
+        <v>43.50776958769185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>59189</v>
+      </c>
+      <c r="C148">
+        <v>43754.59961615087</v>
+      </c>
+      <c r="D148">
+        <v>0.483258387465467</v>
+      </c>
+      <c r="E148">
+        <v>11.9197151017069</v>
+      </c>
+      <c r="F148">
+        <v>3.257401346797214</v>
+      </c>
+      <c r="G148">
+        <v>279.6703217244656</v>
+      </c>
+      <c r="H148">
+        <v>24.09140149099107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>59190</v>
+      </c>
+      <c r="C149">
+        <v>43737.41835285704</v>
+      </c>
+      <c r="D149">
+        <v>0.484979607130254</v>
+      </c>
+      <c r="E149">
+        <v>11.91100447872321</v>
+      </c>
+      <c r="F149">
+        <v>3.412989240235383</v>
+      </c>
+      <c r="G149">
+        <v>279.9534251347819</v>
+      </c>
+      <c r="H149">
+        <v>4.667215873457432</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>59191</v>
+      </c>
+      <c r="C150">
+        <v>43728.60037261963</v>
+      </c>
+      <c r="D150">
+        <v>0.4866936974306778</v>
+      </c>
+      <c r="E150">
+        <v>11.90432099663044</v>
+      </c>
+      <c r="F150">
+        <v>3.570519492623968</v>
+      </c>
+      <c r="G150">
+        <v>280.22584595172</v>
+      </c>
+      <c r="H150">
+        <v>345.2392085343228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>59192</v>
+      </c>
+      <c r="C151">
+        <v>43734.1823050779</v>
+      </c>
+      <c r="D151">
+        <v>0.4885244174688766</v>
+      </c>
+      <c r="E151">
+        <v>11.89948154318546</v>
+      </c>
+      <c r="F151">
+        <v>3.714581655649164</v>
+      </c>
+      <c r="G151">
+        <v>280.5028458586447</v>
+      </c>
+      <c r="H151">
+        <v>325.8264317333995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>59193</v>
+      </c>
+      <c r="C152">
+        <v>43746.01795358255</v>
+      </c>
+      <c r="D152">
+        <v>0.4904300562010436</v>
+      </c>
+      <c r="E152">
+        <v>11.89520821222308</v>
+      </c>
+      <c r="F152">
+        <v>3.851259830176064</v>
+      </c>
+      <c r="G152">
+        <v>280.7803162426133</v>
+      </c>
+      <c r="H152">
+        <v>306.4354073160609</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>59194</v>
+      </c>
+      <c r="C153">
+        <v>43757.72018606289</v>
+      </c>
+      <c r="D153">
+        <v>0.4923562839122558</v>
+      </c>
+      <c r="E153">
+        <v>11.89128928311411</v>
+      </c>
+      <c r="F153">
+        <v>3.98620353456716</v>
+      </c>
+      <c r="G153">
+        <v>281.063356654244</v>
+      </c>
+      <c r="H153">
+        <v>287.0508926251758</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>59195</v>
+      </c>
+      <c r="C154">
+        <v>43768.94142568621</v>
+      </c>
+      <c r="D154">
+        <v>0.4942662330033623</v>
+      </c>
+      <c r="E154">
+        <v>11.88746838859762</v>
+      </c>
+      <c r="F154">
+        <v>4.123011264793783</v>
+      </c>
+      <c r="G154">
+        <v>281.3536254828173</v>
+      </c>
+      <c r="H154">
+        <v>267.6621091694962</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>59196</v>
+      </c>
+      <c r="C155">
+        <v>43780.49832189054</v>
+      </c>
+      <c r="D155">
+        <v>0.4961229286955861</v>
+      </c>
+      <c r="E155">
+        <v>11.88351327255474</v>
+      </c>
+      <c r="F155">
+        <v>4.263232013964235</v>
+      </c>
+      <c r="G155">
+        <v>281.651707317234</v>
+      </c>
+      <c r="H155">
+        <v>248.2679034945811</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>59197</v>
+      </c>
+      <c r="C156">
+        <v>43791.89008721568</v>
+      </c>
+      <c r="D156">
+        <v>0.4979014455429945</v>
+      </c>
+      <c r="E156">
+        <v>11.87909847100786</v>
+      </c>
+      <c r="F156">
+        <v>4.406633264015721</v>
+      </c>
+      <c r="G156">
+        <v>281.9592236392735</v>
+      </c>
+      <c r="H156">
+        <v>228.8712205735892</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>59198</v>
+      </c>
+      <c r="C157">
+        <v>43801.70898589465</v>
+      </c>
+      <c r="D157">
+        <v>0.4995926207563862</v>
+      </c>
+      <c r="E157">
+        <v>11.87385295337252</v>
+      </c>
+      <c r="F157">
+        <v>4.5520302221477</v>
+      </c>
+      <c r="G157">
+        <v>282.2766408779123</v>
+      </c>
+      <c r="H157">
+        <v>209.475077383159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>59199</v>
+      </c>
+      <c r="C158">
+        <v>43808.66704470182</v>
+      </c>
+      <c r="D158">
+        <v>0.5011983765681106</v>
+      </c>
+      <c r="E158">
+        <v>11.86750575940024</v>
+      </c>
+      <c r="F158">
+        <v>4.697974110393353</v>
+      </c>
+      <c r="G158">
+        <v>282.6019132153577</v>
+      </c>
+      <c r="H158">
+        <v>190.0812933296489</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>59200</v>
+      </c>
+      <c r="C159">
+        <v>43812.16189630299</v>
+      </c>
+      <c r="D159">
+        <v>0.502726486655476</v>
+      </c>
+      <c r="E159">
+        <v>11.85997774549909</v>
+      </c>
+      <c r="F159">
+        <v>4.843215527312834</v>
+      </c>
+      <c r="G159">
+        <v>282.9311372808025</v>
+      </c>
+      <c r="H159">
+        <v>170.6905361217327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>59201.00000000001</v>
+      </c>
+      <c r="C160">
+        <v>43812.29481520734</v>
+      </c>
+      <c r="D160">
+        <v>0.50418708041866</v>
+      </c>
+      <c r="E160">
+        <v>11.85137674495962</v>
+      </c>
+      <c r="F160">
+        <v>4.986959872879711</v>
+      </c>
+      <c r="G160">
+        <v>283.2600551683342</v>
+      </c>
+      <c r="H160">
+        <v>151.3027253651049</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>59202</v>
+      </c>
+      <c r="C161">
+        <v>43809.57772584926</v>
+      </c>
+      <c r="D161">
+        <v>0.5055907500299691</v>
+      </c>
+      <c r="E161">
+        <v>11.84193005775459</v>
+      </c>
+      <c r="F161">
+        <v>5.128933788278426</v>
+      </c>
+      <c r="G161">
+        <v>283.58525521965</v>
+      </c>
+      <c r="H161">
+        <v>131.9173803436528</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>59203</v>
+      </c>
+      <c r="C162">
+        <v>43804.56409579291</v>
+      </c>
+      <c r="D162">
+        <v>0.5069478337186705</v>
+      </c>
+      <c r="E162">
+        <v>11.83190372639365</v>
+      </c>
+      <c r="F162">
+        <v>5.269319269312099</v>
+      </c>
+      <c r="G162">
+        <v>283.9046068296383</v>
+      </c>
+      <c r="H162">
+        <v>112.5338364223887</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>59204</v>
+      </c>
+      <c r="C163">
+        <v>43797.50831185819</v>
+      </c>
+      <c r="D163">
+        <v>0.5082685118878593</v>
+      </c>
+      <c r="E163">
+        <v>11.82153863791903</v>
+      </c>
+      <c r="F163">
+        <v>5.408646524920963</v>
+      </c>
+      <c r="G163">
+        <v>284.2169693660692</v>
+      </c>
+      <c r="H163">
+        <v>93.15132476565427</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>59205</v>
+      </c>
+      <c r="C164">
+        <v>43788.07125806867</v>
+      </c>
+      <c r="D164">
+        <v>0.5095627788207097</v>
+      </c>
+      <c r="E164">
+        <v>11.81101407771546</v>
+      </c>
+      <c r="F164">
+        <v>5.547762708908539</v>
+      </c>
+      <c r="G164">
+        <v>284.5214017987562</v>
+      </c>
+      <c r="H164">
+        <v>73.76868490622631</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>59206</v>
+      </c>
+      <c r="C165">
+        <v>43775.24462563654</v>
+      </c>
+      <c r="D165">
+        <v>0.5108380842847117</v>
+      </c>
+      <c r="E165">
+        <v>11.80045230220744</v>
+      </c>
+      <c r="F165">
+        <v>5.687977150693318</v>
+      </c>
+      <c r="G165">
+        <v>284.8164600840074</v>
+      </c>
+      <c r="H165">
+        <v>54.38307964780099</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>59207</v>
+      </c>
+      <c r="C166">
+        <v>43758.28962675119</v>
+      </c>
+      <c r="D166">
+        <v>0.5120961707339758</v>
+      </c>
+      <c r="E166">
+        <v>11.78997158928639</v>
+      </c>
+      <c r="F166">
+        <v>5.831221062178321</v>
+      </c>
+      <c r="G166">
+        <v>285.1012802431659</v>
+      </c>
+      <c r="H166">
+        <v>34.98718757714891</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>59208</v>
+      </c>
+      <c r="C167">
+        <v>43740.24963866607</v>
+      </c>
+      <c r="D167">
+        <v>0.513353882932698</v>
+      </c>
+      <c r="E167">
+        <v>11.77950347766673</v>
+      </c>
+      <c r="F167">
+        <v>5.980126521969797</v>
+      </c>
+      <c r="G167">
+        <v>285.3781741524107</v>
+      </c>
+      <c r="H167">
+        <v>15.56818573487013</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>59209</v>
+      </c>
+      <c r="C168">
+        <v>43729.21888152804</v>
+      </c>
+      <c r="D168">
+        <v>0.5146490841190935</v>
+      </c>
+      <c r="E168">
+        <v>11.76904483630721</v>
+      </c>
+      <c r="F168">
+        <v>6.144121970195478</v>
+      </c>
+      <c r="G168">
+        <v>285.6418738678303</v>
+      </c>
+      <c r="H168">
+        <v>356.121549600416</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>59210</v>
+      </c>
+      <c r="C169">
+        <v>43730.85168361934</v>
+      </c>
+      <c r="D169">
+        <v>0.5159971447861968</v>
+      </c>
+      <c r="E169">
+        <v>11.76117189149598</v>
+      </c>
+      <c r="F169">
+        <v>6.313543942426136</v>
+      </c>
+      <c r="G169">
+        <v>285.9108877615607</v>
+      </c>
+      <c r="H169">
+        <v>336.65789390869</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>59211</v>
+      </c>
+      <c r="C170">
+        <v>43741.80840799193</v>
+      </c>
+      <c r="D170">
+        <v>0.517368215500308</v>
+      </c>
+      <c r="E170">
+        <v>11.75340491703788</v>
+      </c>
+      <c r="F170">
+        <v>6.480037704134889</v>
+      </c>
+      <c r="G170">
+        <v>286.1902979264893</v>
+      </c>
+      <c r="H170">
+        <v>317.1938895165887</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>59212</v>
+      </c>
+      <c r="C171">
+        <v>43755.3791582203</v>
+      </c>
+      <c r="D171">
+        <v>0.5186585348228436</v>
+      </c>
+      <c r="E171">
+        <v>11.74523662168249</v>
+      </c>
+      <c r="F171">
+        <v>6.64950012032291</v>
+      </c>
+      <c r="G171">
+        <v>286.4735134094524</v>
+      </c>
+      <c r="H171">
+        <v>297.7317032207282</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>59213</v>
+      </c>
+      <c r="C172">
+        <v>43769.40604721999</v>
+      </c>
+      <c r="D172">
+        <v>0.5198130772247519</v>
+      </c>
+      <c r="E172">
+        <v>11.7365640474381</v>
+      </c>
+      <c r="F172">
+        <v>6.821155456736477</v>
+      </c>
+      <c r="G172">
+        <v>286.7629144725018</v>
+      </c>
+      <c r="H172">
+        <v>278.2710914571737</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>59214</v>
+      </c>
+      <c r="C173">
+        <v>43783.124831802</v>
+      </c>
+      <c r="D173">
+        <v>0.5208088874520375</v>
+      </c>
+      <c r="E173">
+        <v>11.72727143180843</v>
+      </c>
+      <c r="F173">
+        <v>6.991704386268439</v>
+      </c>
+      <c r="G173">
+        <v>287.0606927317493</v>
+      </c>
+      <c r="H173">
+        <v>258.8168932253104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>59215</v>
+      </c>
+      <c r="C174">
+        <v>43795.31372617603</v>
+      </c>
+      <c r="D174">
+        <v>0.5216552742580038</v>
+      </c>
+      <c r="E174">
+        <v>11.71729900927056</v>
+      </c>
+      <c r="F174">
+        <v>7.156930854213337</v>
+      </c>
+      <c r="G174">
+        <v>287.3682860244937</v>
+      </c>
+      <c r="H174">
+        <v>239.3758937126266</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>59216</v>
+      </c>
+      <c r="C175">
+        <v>43804.27268771899</v>
+      </c>
+      <c r="D175">
+        <v>0.522392334533163</v>
+      </c>
+      <c r="E175">
+        <v>11.70660313128274</v>
+      </c>
+      <c r="F175">
+        <v>7.313737000304033</v>
+      </c>
+      <c r="G175">
+        <v>287.6853077236485</v>
+      </c>
+      <c r="H175">
+        <v>219.9514568947489</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>59217</v>
+      </c>
+      <c r="C176">
+        <v>43809.03092371342</v>
+      </c>
+      <c r="D176">
+        <v>0.523065960469418</v>
+      </c>
+      <c r="E176">
+        <v>11.69522577607332</v>
+      </c>
+      <c r="F176">
+        <v>7.461492926251284</v>
+      </c>
+      <c r="G176">
+        <v>288.0084337695486</v>
+      </c>
+      <c r="H176">
+        <v>200.5414335214694</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>59218</v>
+      </c>
+      <c r="C177">
+        <v>43810.24281252574</v>
+      </c>
+      <c r="D177">
+        <v>0.5237042931671499</v>
+      </c>
+      <c r="E177">
+        <v>11.68343045627107</v>
+      </c>
+      <c r="F177">
+        <v>7.601284579667447</v>
+      </c>
+      <c r="G177">
+        <v>288.3328278743851</v>
+      </c>
+      <c r="H177">
+        <v>181.1418211823606</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>59219</v>
+      </c>
+      <c r="C178">
+        <v>43809.41415435373</v>
+      </c>
+      <c r="D178">
+        <v>0.5243254800603748</v>
+      </c>
+      <c r="E178">
+        <v>11.67162942202802</v>
+      </c>
+      <c r="F178">
+        <v>7.734534149623872</v>
+      </c>
+      <c r="G178">
+        <v>288.6550613289039</v>
+      </c>
+      <c r="H178">
+        <v>161.750749135916</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>59220</v>
+      </c>
+      <c r="C179">
+        <v>43807.48258693835</v>
+      </c>
+      <c r="D179">
+        <v>0.5249553622778969</v>
+      </c>
+      <c r="E179">
+        <v>11.66010925939777</v>
+      </c>
+      <c r="F179">
+        <v>7.862917999465083</v>
+      </c>
+      <c r="G179">
+        <v>288.9740983011527</v>
+      </c>
+      <c r="H179">
+        <v>142.3676424807571</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>59221</v>
+      </c>
+      <c r="C180">
+        <v>43804.25037206498</v>
+      </c>
+      <c r="D180">
+        <v>0.5256251842415566</v>
+      </c>
+      <c r="E180">
+        <v>11.64884496111852</v>
+      </c>
+      <c r="F180">
+        <v>7.98890549631265</v>
+      </c>
+      <c r="G180">
+        <v>289.2901643507735</v>
+      </c>
+      <c r="H180">
+        <v>122.9899841418956</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>59222</v>
+      </c>
+      <c r="C181">
+        <v>43798.68746602882</v>
+      </c>
+      <c r="D181">
+        <v>0.5263545055449036</v>
+      </c>
+      <c r="E181">
+        <v>11.63752855899305</v>
+      </c>
+      <c r="F181">
+        <v>8.115715780120338</v>
+      </c>
+      <c r="G181">
+        <v>289.6034158510141</v>
+      </c>
+      <c r="H181">
+        <v>103.6115947131535</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>59223</v>
+      </c>
+      <c r="C182">
+        <v>43789.54722922455</v>
+      </c>
+      <c r="D182">
+        <v>0.5271360982114908</v>
+      </c>
+      <c r="E182">
+        <v>11.6257384038778</v>
+      </c>
+      <c r="F182">
+        <v>8.246676099177852</v>
+      </c>
+      <c r="G182">
+        <v>289.9134029466607</v>
+      </c>
+      <c r="H182">
+        <v>84.22314326095051</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>59224</v>
+      </c>
+      <c r="C183">
+        <v>43776.0334224664</v>
+      </c>
+      <c r="D183">
+        <v>0.5279310079414878</v>
+      </c>
+      <c r="E183">
+        <v>11.61314897682008</v>
+      </c>
+      <c r="F183">
+        <v>8.384446851011905</v>
+      </c>
+      <c r="G183">
+        <v>290.2195026546006</v>
+      </c>
+      <c r="H183">
+        <v>64.81387613037347</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>59225</v>
+      </c>
+      <c r="C184">
+        <v>43758.58475799892</v>
+      </c>
+      <c r="D184">
+        <v>0.5286768961700442</v>
+      </c>
+      <c r="E184">
+        <v>11.59971249567313</v>
+      </c>
+      <c r="F184">
+        <v>8.5303435898738</v>
+      </c>
+      <c r="G184">
+        <v>290.5224320482814</v>
+      </c>
+      <c r="H184">
+        <v>45.3735816847424</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>59226</v>
+      </c>
+      <c r="C185">
+        <v>43740.36755487243</v>
+      </c>
+      <c r="D185">
+        <v>0.5293195704869068</v>
+      </c>
+      <c r="E185">
+        <v>11.58569070873109</v>
+      </c>
+      <c r="F185">
+        <v>8.683566748800141</v>
+      </c>
+      <c r="G185">
+        <v>290.8265113056248</v>
+      </c>
+      <c r="H185">
+        <v>25.89459260107344</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>59227</v>
+      </c>
+      <c r="C186">
+        <v>43729.27039628937</v>
+      </c>
+      <c r="D186">
+        <v>0.5298715217168901</v>
+      </c>
+      <c r="E186">
+        <v>11.57084121165691</v>
+      </c>
+      <c r="F186">
+        <v>8.842840327223026</v>
+      </c>
+      <c r="G186">
+        <v>291.132659812663</v>
+      </c>
+      <c r="H186">
+        <v>6.37981986592584</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>59228</v>
+      </c>
+      <c r="C187">
+        <v>43727.81450556579</v>
+      </c>
+      <c r="D187">
+        <v>0.5302955024133537</v>
+      </c>
+      <c r="E187">
+        <v>11.55673030591427</v>
+      </c>
+      <c r="F187">
+        <v>9.012668117240915</v>
+      </c>
+      <c r="G187">
+        <v>291.4292874434973</v>
+      </c>
+      <c r="H187">
+        <v>346.8522676262231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>59229</v>
+      </c>
+      <c r="C188">
+        <v>43739.02676409872</v>
+      </c>
+      <c r="D188">
+        <v>0.5306426821802195</v>
+      </c>
+      <c r="E188">
+        <v>11.54461573730766</v>
+      </c>
+      <c r="F188">
+        <v>9.168429761444175</v>
+      </c>
+      <c r="G188">
+        <v>291.740110815638</v>
+      </c>
+      <c r="H188">
+        <v>327.3379178951172</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>59230</v>
+      </c>
+      <c r="C189">
+        <v>43756.05656875191</v>
+      </c>
+      <c r="D189">
+        <v>0.5308904016124906</v>
+      </c>
+      <c r="E189">
+        <v>11.53289113958986</v>
+      </c>
+      <c r="F189">
+        <v>9.311510226666485</v>
+      </c>
+      <c r="G189">
+        <v>292.054382920944</v>
+      </c>
+      <c r="H189">
+        <v>307.8565407629203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>59231</v>
+      </c>
+      <c r="C190">
+        <v>43772.36820231299</v>
+      </c>
+      <c r="D190">
+        <v>0.5310317249897774</v>
+      </c>
+      <c r="E190">
+        <v>11.52169066965907</v>
+      </c>
+      <c r="F190">
+        <v>9.444033914539189</v>
+      </c>
+      <c r="G190">
+        <v>292.3734960799587</v>
+      </c>
+      <c r="H190">
+        <v>288.4062493356629</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>59232</v>
+      </c>
+      <c r="C191">
+        <v>43785.72278253101</v>
+      </c>
+      <c r="D191">
+        <v>0.5311071329105115</v>
+      </c>
+      <c r="E191">
+        <v>11.51091476569426</v>
+      </c>
+      <c r="F191">
+        <v>9.567088370711055</v>
+      </c>
+      <c r="G191">
+        <v>292.6996358810463</v>
+      </c>
+      <c r="H191">
+        <v>268.9803219798176</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>59233</v>
+      </c>
+      <c r="C192">
+        <v>43795.68627192974</v>
+      </c>
+      <c r="D192">
+        <v>0.5311580440269481</v>
+      </c>
+      <c r="E192">
+        <v>11.50043263171803</v>
+      </c>
+      <c r="F192">
+        <v>9.682530857156678</v>
+      </c>
+      <c r="G192">
+        <v>293.0322057618966</v>
+      </c>
+      <c r="H192">
+        <v>249.5720596092219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>59234</v>
+      </c>
+      <c r="C193">
+        <v>43802.54354266318</v>
+      </c>
+      <c r="D193">
+        <v>0.531213673864676</v>
+      </c>
+      <c r="E193">
+        <v>11.49013949795366</v>
+      </c>
+      <c r="F193">
+        <v>9.792584515536992</v>
+      </c>
+      <c r="G193">
+        <v>293.369476808177</v>
+      </c>
+      <c r="H193">
+        <v>230.17552659283</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>59235</v>
+      </c>
+      <c r="C194">
+        <v>43806.8480682903</v>
+      </c>
+      <c r="D194">
+        <v>0.5312899403731662</v>
+      </c>
+      <c r="E194">
+        <v>11.47994182055308</v>
+      </c>
+      <c r="F194">
+        <v>9.89947705164672</v>
+      </c>
+      <c r="G194">
+        <v>293.7097756908392</v>
+      </c>
+      <c r="H194">
+        <v>210.7856188393863</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>59236</v>
+      </c>
+      <c r="C195">
+        <v>43809.17797448287</v>
+      </c>
+      <c r="D195">
+        <v>0.5313916177964545</v>
+      </c>
+      <c r="E195">
+        <v>11.46973159278802</v>
+      </c>
+      <c r="F195">
+        <v>10.00519910959618</v>
+      </c>
+      <c r="G195">
+        <v>294.0520858491615</v>
+      </c>
+      <c r="H195">
+        <v>191.3980072793683</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>59237</v>
+      </c>
+      <c r="C196">
+        <v>43809.92475251167</v>
+      </c>
+      <c r="D196">
+        <v>0.5315157072275138</v>
+      </c>
+      <c r="E196">
+        <v>11.45935732777063</v>
+      </c>
+      <c r="F196">
+        <v>10.1113300309382</v>
+      </c>
+      <c r="G196">
+        <v>294.3962261156964</v>
+      </c>
+      <c r="H196">
+        <v>172.009105034661</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>59238</v>
+      </c>
+      <c r="C197">
+        <v>43809.04393439709</v>
+      </c>
+      <c r="D197">
+        <v>0.5316556862416101</v>
+      </c>
+      <c r="E197">
+        <v>11.44859230172697</v>
+      </c>
+      <c r="F197">
+        <v>10.2189783728062</v>
+      </c>
+      <c r="G197">
+        <v>294.7425644844134</v>
+      </c>
+      <c r="H197">
+        <v>152.6159120307705</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>59239</v>
+      </c>
+      <c r="C198">
+        <v>43805.85193323396</v>
+      </c>
+      <c r="D198">
+        <v>0.5318047395055242</v>
+      </c>
+      <c r="E198">
+        <v>11.4371162711188</v>
+      </c>
+      <c r="F198">
+        <v>10.32898724735754</v>
+      </c>
+      <c r="G198">
+        <v>295.091180840099</v>
+      </c>
+      <c r="H198">
+        <v>133.2152738502783</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>59240</v>
+      </c>
+      <c r="C199">
+        <v>43799.20744512771</v>
+      </c>
+      <c r="D199">
+        <v>0.531952095635372</v>
+      </c>
+      <c r="E199">
+        <v>11.4245615850655</v>
+      </c>
+      <c r="F199">
+        <v>10.44237604679715</v>
+      </c>
+      <c r="G199">
+        <v>295.4409613025434</v>
+      </c>
+      <c r="H199">
+        <v>113.8023359953147</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>59241</v>
+      </c>
+      <c r="C200">
+        <v>43788.37543291496</v>
+      </c>
+      <c r="D200">
+        <v>0.5320687044516241</v>
+      </c>
+      <c r="E200">
+        <v>11.41067550650998</v>
+      </c>
+      <c r="F200">
+        <v>10.5603060467307</v>
+      </c>
+      <c r="G200">
+        <v>295.79004863886</v>
+      </c>
+      <c r="H200">
+        <v>94.36966572912863</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>59242</v>
+      </c>
+      <c r="C201">
+        <v>43773.96509665385</v>
+      </c>
+      <c r="D201">
+        <v>0.532096552549706</v>
+      </c>
+      <c r="E201">
+        <v>11.39553194992567</v>
+      </c>
+      <c r="F201">
+        <v>10.68274744251322</v>
+      </c>
+      <c r="G201">
+        <v>296.1380401789322</v>
+      </c>
+      <c r="H201">
+        <v>74.90995134661563</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>59243</v>
+      </c>
+      <c r="C202">
+        <v>43757.75039080157</v>
+      </c>
+      <c r="D202">
+        <v>0.5319652355134658</v>
+      </c>
+      <c r="E202">
+        <v>11.37961603704487</v>
+      </c>
+      <c r="F202">
+        <v>10.80692383713665</v>
+      </c>
+      <c r="G202">
+        <v>296.4870988753083</v>
+      </c>
+      <c r="H202">
+        <v>55.42161047102353</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>59244</v>
+      </c>
+      <c r="C203">
+        <v>43741.84914970958</v>
+      </c>
+      <c r="D203">
+        <v>0.5316323718966777</v>
+      </c>
+      <c r="E203">
+        <v>11.36372416962889</v>
+      </c>
+      <c r="F203">
+        <v>10.92775112808088</v>
+      </c>
+      <c r="G203">
+        <v>296.8401835069273</v>
+      </c>
+      <c r="H203">
+        <v>35.91107284767596</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>59245</v>
+      </c>
+      <c r="C204">
+        <v>43730.15176384414</v>
+      </c>
+      <c r="D204">
+        <v>0.5311355500435543</v>
+      </c>
+      <c r="E204">
+        <v>11.34854198002464</v>
+      </c>
+      <c r="F204">
+        <v>11.04004001195218</v>
+      </c>
+      <c r="G204">
+        <v>297.198243538226</v>
+      </c>
+      <c r="H204">
+        <v>16.38920159020359</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>59246</v>
+      </c>
+      <c r="C205">
+        <v>43728.10613464888</v>
+      </c>
+      <c r="D205">
+        <v>0.5305708731742964</v>
+      </c>
+      <c r="E205">
+        <v>11.33370802790461</v>
+      </c>
+      <c r="F205">
+        <v>11.14844881530437</v>
+      </c>
+      <c r="G205">
+        <v>297.5439529401071</v>
+      </c>
+      <c r="H205">
+        <v>356.8759477670359</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>59247</v>
+      </c>
+      <c r="C206">
+        <v>43737.87192981173</v>
+      </c>
+      <c r="D206">
+        <v>0.530000546594724</v>
+      </c>
+      <c r="E206">
+        <v>11.32239140285067</v>
+      </c>
+      <c r="F206">
+        <v>11.25104909850234</v>
+      </c>
+      <c r="G206">
+        <v>297.882831363624</v>
+      </c>
+      <c r="H206">
+        <v>337.3912113336439</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>59248</v>
+      </c>
+      <c r="C207">
+        <v>43756.11078306852</v>
+      </c>
+      <c r="D207">
+        <v>0.5295025490301879</v>
+      </c>
+      <c r="E207">
+        <v>11.31283591175688</v>
+      </c>
+      <c r="F207">
+        <v>11.33739927985923</v>
+      </c>
+      <c r="G207">
+        <v>298.2267165525573</v>
+      </c>
+      <c r="H207">
+        <v>317.9485685100998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>59249</v>
+      </c>
+      <c r="C208">
+        <v>43772.43419572706</v>
+      </c>
+      <c r="D208">
+        <v>0.5290416912126981</v>
+      </c>
+      <c r="E208">
+        <v>11.30386084080493</v>
+      </c>
+      <c r="F208">
+        <v>11.41812723029602</v>
+      </c>
+      <c r="G208">
+        <v>298.5743869656536</v>
+      </c>
+      <c r="H208">
+        <v>298.5340623027449</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>59250</v>
+      </c>
+      <c r="C209">
+        <v>43784.52762075667</v>
+      </c>
+      <c r="D209">
+        <v>0.5286118528427829</v>
+      </c>
+      <c r="E209">
+        <v>11.29505808999676</v>
+      </c>
+      <c r="F209">
+        <v>11.49800406301564</v>
+      </c>
+      <c r="G209">
+        <v>298.9294825023274</v>
+      </c>
+      <c r="H209">
+        <v>279.127830858518</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>59251</v>
+      </c>
+      <c r="C210">
+        <v>43793.89196644018</v>
+      </c>
+      <c r="D210">
+        <v>0.5281937637423065</v>
+      </c>
+      <c r="E210">
+        <v>11.2862055205192</v>
+      </c>
+      <c r="F210">
+        <v>11.57858459145812</v>
+      </c>
+      <c r="G210">
+        <v>299.2926040159052</v>
+      </c>
+      <c r="H210">
+        <v>259.7201994771246</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>59252</v>
+      </c>
+      <c r="C211">
+        <v>43801.74205517958</v>
+      </c>
+      <c r="D211">
+        <v>0.5277606732373598</v>
+      </c>
+      <c r="E211">
+        <v>11.2771467871704</v>
+      </c>
+      <c r="F211">
+        <v>11.65928615142914</v>
+      </c>
+      <c r="G211">
+        <v>299.6650595940098</v>
+      </c>
+      <c r="H211">
+        <v>240.3093650982105</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>59253</v>
+      </c>
+      <c r="C212">
+        <v>43808.01617942948</v>
+      </c>
+      <c r="D212">
+        <v>0.5272918124711693</v>
+      </c>
+      <c r="E212">
+        <v>11.26771472262028</v>
+      </c>
+      <c r="F212">
+        <v>11.73855227875951</v>
+      </c>
+      <c r="G212">
+        <v>300.0487923434013</v>
+      </c>
+      <c r="H212">
+        <v>220.8960370952981</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>59254</v>
+      </c>
+      <c r="C213">
+        <v>43811.97079570771</v>
+      </c>
+      <c r="D213">
+        <v>0.5267738186540459</v>
+      </c>
+      <c r="E213">
+        <v>11.25779532693131</v>
+      </c>
+      <c r="F213">
+        <v>11.81468162233419</v>
+      </c>
+      <c r="G213">
+        <v>300.4445008251486</v>
+      </c>
+      <c r="H213">
+        <v>201.4807904968521</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>59255</v>
+      </c>
+      <c r="C214">
+        <v>43812.86391412015</v>
+      </c>
+      <c r="D214">
+        <v>0.5261978882707068</v>
+      </c>
+      <c r="E214">
+        <v>11.24739620164649</v>
+      </c>
+      <c r="F214">
+        <v>11.88625070908915</v>
+      </c>
+      <c r="G214">
+        <v>300.8507792125006</v>
+      </c>
+      <c r="H214">
+        <v>182.0634895327566</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>59256</v>
+      </c>
+      <c r="C215">
+        <v>43810.3307757924</v>
+      </c>
+      <c r="D215">
+        <v>0.5255575563868076</v>
+      </c>
+      <c r="E215">
+        <v>11.23666147821553</v>
+      </c>
+      <c r="F215">
+        <v>11.95230532963619</v>
+      </c>
+      <c r="G215">
+        <v>301.2644671245312</v>
+      </c>
+      <c r="H215">
+        <v>162.6435076013601</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>59257</v>
+      </c>
+      <c r="C216">
+        <v>43804.55147165807</v>
+      </c>
+      <c r="D216">
+        <v>0.5248485670609</v>
+      </c>
+      <c r="E216">
+        <v>11.22588159599048</v>
+      </c>
+      <c r="F216">
+        <v>12.01216157724114</v>
+      </c>
+      <c r="G216">
+        <v>301.6812915970966</v>
+      </c>
+      <c r="H216">
+        <v>143.2211202079062</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>59258</v>
+      </c>
+      <c r="C217">
+        <v>43796.34785937372</v>
+      </c>
+      <c r="D217">
+        <v>0.5240712561918541</v>
+      </c>
+      <c r="E217">
+        <v>11.21553326208554</v>
+      </c>
+      <c r="F217">
+        <v>12.06482437870904</v>
+      </c>
+      <c r="G217">
+        <v>302.0960142521693</v>
+      </c>
+      <c r="H217">
+        <v>123.7996427191053</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>59259</v>
+      </c>
+      <c r="C218">
+        <v>43786.60481443212</v>
+      </c>
+      <c r="D218">
+        <v>0.5232253285220491</v>
+      </c>
+      <c r="E218">
+        <v>11.20594156492979</v>
+      </c>
+      <c r="F218">
+        <v>12.11044649248096</v>
+      </c>
+      <c r="G218">
+        <v>302.5053439510355</v>
+      </c>
+      <c r="H218">
+        <v>104.3768845393328</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>59260</v>
+      </c>
+      <c r="C219">
+        <v>43775.88230716911</v>
+      </c>
+      <c r="D219">
+        <v>0.5223091089138509</v>
+      </c>
+      <c r="E219">
+        <v>11.19718161231694</v>
+      </c>
+      <c r="F219">
+        <v>12.15034619751503</v>
+      </c>
+      <c r="G219">
+        <v>302.9088262685583</v>
+      </c>
+      <c r="H219">
+        <v>84.94539452218685</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>59261</v>
+      </c>
+      <c r="C220">
+        <v>43764.51519092461</v>
+      </c>
+      <c r="D220">
+        <v>0.5213266556023093</v>
+      </c>
+      <c r="E220">
+        <v>11.18928268733083</v>
+      </c>
+      <c r="F220">
+        <v>12.18570958378623</v>
+      </c>
+      <c r="G220">
+        <v>303.3064283601314</v>
+      </c>
+      <c r="H220">
+        <v>65.50076878400137</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>59262</v>
+      </c>
+      <c r="C221">
+        <v>43752.56267909886</v>
+      </c>
+      <c r="D221">
+        <v>0.5202882236144115</v>
+      </c>
+      <c r="E221">
+        <v>11.18220031436919</v>
+      </c>
+      <c r="F221">
+        <v>12.21806674008737</v>
+      </c>
+      <c r="G221">
+        <v>303.6982706370509</v>
+      </c>
+      <c r="H221">
+        <v>46.0382058410192</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>59263</v>
+      </c>
+      <c r="C222">
+        <v>43741.48941798793</v>
+      </c>
+      <c r="D222">
+        <v>0.5192204859933428</v>
+      </c>
+      <c r="E222">
+        <v>11.17587234410571</v>
+      </c>
+      <c r="F222">
+        <v>12.24928477879735</v>
+      </c>
+      <c r="G222">
+        <v>304.0858040057725</v>
+      </c>
+      <c r="H222">
+        <v>26.54929148419996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>59264</v>
+      </c>
+      <c r="C223">
+        <v>43739.03385438248</v>
+      </c>
+      <c r="D223">
+        <v>0.518211769685288</v>
+      </c>
+      <c r="E223">
+        <v>11.16964107417582</v>
+      </c>
+      <c r="F223">
+        <v>12.28133905631268</v>
+      </c>
+      <c r="G223">
+        <v>304.4695471102776</v>
+      </c>
+      <c r="H223">
+        <v>7.026823950417322</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>59265</v>
+      </c>
+      <c r="C224">
+        <v>43749.16070427898</v>
+      </c>
+      <c r="D224">
+        <v>0.5172740429076397</v>
+      </c>
+      <c r="E224">
+        <v>11.1633485343329</v>
+      </c>
+      <c r="F224">
+        <v>12.32474657426993</v>
+      </c>
+      <c r="G224">
+        <v>304.8369646132695</v>
+      </c>
+      <c r="H224">
+        <v>347.4828971610787</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>59266</v>
+      </c>
+      <c r="C225">
+        <v>43768.55150091377</v>
+      </c>
+      <c r="D225">
+        <v>0.5163909873484501</v>
+      </c>
+      <c r="E225">
+        <v>11.15858047811967</v>
+      </c>
+      <c r="F225">
+        <v>12.36600096663705</v>
+      </c>
+      <c r="G225">
+        <v>305.2113514513717</v>
+      </c>
+      <c r="H225">
+        <v>327.9268850031982</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>59267</v>
+      </c>
+      <c r="C226">
+        <v>43788.3034832089</v>
+      </c>
+      <c r="D226">
+        <v>0.5154978114959267</v>
+      </c>
+      <c r="E226">
+        <v>11.15330953104895</v>
+      </c>
+      <c r="F226">
+        <v>12.40549680387311</v>
+      </c>
+      <c r="G226">
+        <v>305.5939939430011</v>
+      </c>
+      <c r="H226">
+        <v>308.3541886857076</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>59268</v>
+      </c>
+      <c r="C227">
+        <v>43805.35488420122</v>
+      </c>
+      <c r="D227">
+        <v>0.5145548682649476</v>
+      </c>
+      <c r="E227">
+        <v>11.14737363245121</v>
+      </c>
+      <c r="F227">
+        <v>12.44695886953143</v>
+      </c>
+      <c r="G227">
+        <v>305.9858572259225</v>
+      </c>
+      <c r="H227">
+        <v>288.7513322858643</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>59269</v>
+      </c>
+      <c r="C228">
+        <v>43820.12073179265</v>
+      </c>
+      <c r="D228">
+        <v>0.5135350583242821</v>
+      </c>
+      <c r="E228">
+        <v>11.14088479977671</v>
+      </c>
+      <c r="F228">
+        <v>12.48913563658164</v>
+      </c>
+      <c r="G228">
+        <v>306.3894447268204</v>
+      </c>
+      <c r="H228">
+        <v>269.1109303474173</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>59270</v>
+      </c>
+      <c r="C229">
+        <v>43833.20775290698</v>
+      </c>
+      <c r="D229">
+        <v>0.5124072173388607</v>
+      </c>
+      <c r="E229">
+        <v>11.13411367073015</v>
+      </c>
+      <c r="F229">
+        <v>12.52835806308138</v>
+      </c>
+      <c r="G229">
+        <v>306.8065831740516</v>
+      </c>
+      <c r="H229">
+        <v>249.4332055499077</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>59271</v>
+      </c>
+      <c r="C230">
+        <v>43842.21154713718</v>
+      </c>
+      <c r="D230">
+        <v>0.5111369463746663</v>
+      </c>
+      <c r="E230">
+        <v>11.12711802232823</v>
+      </c>
+      <c r="F230">
+        <v>12.56103723931586</v>
+      </c>
+      <c r="G230">
+        <v>307.2454271787417</v>
+      </c>
+      <c r="H230">
+        <v>229.7012860823658</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>59272.00000000001</v>
+      </c>
+      <c r="C231">
+        <v>43847.59936818885</v>
+      </c>
+      <c r="D231">
+        <v>0.5097435884418171</v>
+      </c>
+      <c r="E231">
+        <v>11.12043661408119</v>
+      </c>
+      <c r="F231">
+        <v>12.58361602451644</v>
+      </c>
+      <c r="G231">
+        <v>307.699814213349</v>
+      </c>
+      <c r="H231">
+        <v>209.9264741636931</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>59273</v>
+      </c>
+      <c r="C232">
+        <v>43849.87938132368</v>
+      </c>
+      <c r="D232">
+        <v>0.5083283310659263</v>
+      </c>
+      <c r="E232">
+        <v>11.11491962190492</v>
+      </c>
+      <c r="F232">
+        <v>12.5939214045624</v>
+      </c>
+      <c r="G232">
+        <v>308.1491451012693</v>
+      </c>
+      <c r="H232">
+        <v>190.1533639852283</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>59274</v>
+      </c>
+      <c r="C233">
+        <v>43848.23764182633</v>
+      </c>
+      <c r="D233">
+        <v>0.5068695095590914</v>
+      </c>
+      <c r="E233">
+        <v>11.11047822597608</v>
+      </c>
+      <c r="F233">
+        <v>12.59619300212248</v>
+      </c>
+      <c r="G233">
+        <v>308.5955858519327</v>
+      </c>
+      <c r="H233">
+        <v>170.3434484084678</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>59275</v>
+      </c>
+      <c r="C234">
+        <v>43844.91117552499</v>
+      </c>
+      <c r="D234">
+        <v>0.5053772388608128</v>
+      </c>
+      <c r="E234">
+        <v>11.10749567352662</v>
+      </c>
+      <c r="F234">
+        <v>12.59296177895725</v>
+      </c>
+      <c r="G234">
+        <v>309.0331641922849</v>
+      </c>
+      <c r="H234">
+        <v>150.4949450917688</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>59276</v>
+      </c>
+      <c r="C235">
+        <v>43841.21777883844</v>
+      </c>
+      <c r="D235">
+        <v>0.5038799100623722</v>
+      </c>
+      <c r="E235">
+        <v>11.10591732683911</v>
+      </c>
+      <c r="F235">
+        <v>12.58663151439714</v>
+      </c>
+      <c r="G235">
+        <v>309.4599402353759</v>
+      </c>
+      <c r="H235">
+        <v>130.6083822723319</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>59277</v>
+      </c>
+      <c r="C236">
+        <v>43836.88049344101</v>
+      </c>
+      <c r="D236">
+        <v>0.502414517901175</v>
+      </c>
+      <c r="E236">
+        <v>11.10517983990682</v>
+      </c>
+      <c r="F236">
+        <v>12.57971250229561</v>
+      </c>
+      <c r="G236">
+        <v>309.8769082367657</v>
+      </c>
+      <c r="H236">
+        <v>110.6808203468541</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>59278</v>
+      </c>
+      <c r="C237">
+        <v>43830.8451825079</v>
+      </c>
+      <c r="D237">
+        <v>0.5009978488019908</v>
+      </c>
+      <c r="E237">
+        <v>11.10455021234947</v>
+      </c>
+      <c r="F237">
+        <v>12.57435990734267</v>
+      </c>
+      <c r="G237">
+        <v>310.2864980903148</v>
+      </c>
+      <c r="H237">
+        <v>90.70385549357518</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>59279</v>
+      </c>
+      <c r="C238">
+        <v>43822.36348125817</v>
+      </c>
+      <c r="D238">
+        <v>0.4996119748982201</v>
+      </c>
+      <c r="E238">
+        <v>11.10349272946545</v>
+      </c>
+      <c r="F238">
+        <v>12.57182818497957</v>
+      </c>
+      <c r="G238">
+        <v>310.691914259683</v>
+      </c>
+      <c r="H238">
+        <v>70.66557546159299</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>59280</v>
+      </c>
+      <c r="C239">
+        <v>43811.99512293645</v>
+      </c>
+      <c r="D239">
+        <v>0.4982117511491063</v>
+      </c>
+      <c r="E239">
+        <v>11.10186215798901</v>
+      </c>
+      <c r="F239">
+        <v>12.57227390252202</v>
+      </c>
+      <c r="G239">
+        <v>311.0978119531657</v>
+      </c>
+      <c r="H239">
+        <v>50.55322484188553</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>59281</v>
+      </c>
+      <c r="C240">
+        <v>43803.25698240047</v>
+      </c>
+      <c r="D240">
+        <v>0.4967583571490473</v>
+      </c>
+      <c r="E240">
+        <v>11.09992594008473</v>
+      </c>
+      <c r="F240">
+        <v>12.57445157081676</v>
+      </c>
+      <c r="G240">
+        <v>311.5122985207053</v>
+      </c>
+      <c r="H240">
+        <v>30.35545007818813</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>59282</v>
+      </c>
+      <c r="C241">
+        <v>43805.33213443949</v>
+      </c>
+      <c r="D241">
+        <v>0.4952901861917276</v>
+      </c>
+      <c r="E241">
+        <v>11.09776379593132</v>
+      </c>
+      <c r="F241">
+        <v>12.57476476834896</v>
+      </c>
+      <c r="G241">
+        <v>311.9432733770942</v>
+      </c>
+      <c r="H241">
+        <v>10.07115859793663</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>59283</v>
+      </c>
+      <c r="C242">
+        <v>43820.87569050327</v>
+      </c>
+      <c r="D242">
+        <v>0.4937895639671013</v>
+      </c>
+      <c r="E242">
+        <v>11.09476333693525</v>
+      </c>
+      <c r="F242">
+        <v>12.57696108713437</v>
+      </c>
+      <c r="G242">
+        <v>312.3755170176119</v>
+      </c>
+      <c r="H242">
+        <v>349.7283124537727</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>59284</v>
+      </c>
+      <c r="C243">
+        <v>43843.75166481637</v>
+      </c>
+      <c r="D243">
+        <v>0.4921837327848452</v>
+      </c>
+      <c r="E243">
+        <v>11.09328138217435</v>
+      </c>
+      <c r="F243">
+        <v>12.57386713856627</v>
+      </c>
+      <c r="G243">
+        <v>312.8160415967519</v>
+      </c>
+      <c r="H243">
+        <v>329.3492346934531</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>59285</v>
+      </c>
+      <c r="C244">
+        <v>43867.95824346313</v>
+      </c>
+      <c r="D244">
+        <v>0.4904470136055877</v>
+      </c>
+      <c r="E244">
+        <v>11.09247984356671</v>
+      </c>
+      <c r="F244">
+        <v>12.55989505392469</v>
+      </c>
+      <c r="G244">
+        <v>313.2652771731197</v>
+      </c>
+      <c r="H244">
+        <v>308.9440739738739</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>59286</v>
+      </c>
+      <c r="C245">
+        <v>43889.32112384951</v>
+      </c>
+      <c r="D245">
+        <v>0.4885840938385528</v>
+      </c>
+      <c r="E245">
+        <v>11.09233174837636</v>
+      </c>
+      <c r="F245">
+        <v>12.5386616796768</v>
+      </c>
+      <c r="G245">
+        <v>313.7211636452361</v>
+      </c>
+      <c r="H245">
+        <v>288.5108724485454</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>59287</v>
+      </c>
+      <c r="C246">
+        <v>43906.24712197761</v>
+      </c>
+      <c r="D246">
+        <v>0.4866387643814293</v>
+      </c>
+      <c r="E246">
+        <v>11.09294495443406</v>
+      </c>
+      <c r="F246">
+        <v>12.51164092445277</v>
+      </c>
+      <c r="G246">
+        <v>314.1833835179602</v>
+      </c>
+      <c r="H246">
+        <v>268.044857610958</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>59288.00000000001</v>
+      </c>
+      <c r="C247">
+        <v>43915.72706997361</v>
+      </c>
+      <c r="D247">
+        <v>0.4846244887470868</v>
+      </c>
+      <c r="E247">
+        <v>11.09444958476343</v>
+      </c>
+      <c r="F247">
+        <v>12.48020828942543</v>
+      </c>
+      <c r="G247">
+        <v>314.6583267597917</v>
+      </c>
+      <c r="H247">
+        <v>247.5193591132521</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>59289</v>
+      </c>
+      <c r="C248">
+        <v>43920.82102756851</v>
+      </c>
+      <c r="D248">
+        <v>0.4825835313833319</v>
+      </c>
+      <c r="E248">
+        <v>11.09678575503856</v>
+      </c>
+      <c r="F248">
+        <v>12.44610197993259</v>
+      </c>
+      <c r="G248">
+        <v>315.1364986355343</v>
+      </c>
+      <c r="H248">
+        <v>226.9381367149542</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>59290.00000000001</v>
+      </c>
+      <c r="C249">
+        <v>43924.67624745519</v>
+      </c>
+      <c r="D249">
+        <v>0.4806226950631698</v>
+      </c>
+      <c r="E249">
+        <v>11.09950785763109</v>
+      </c>
+      <c r="F249">
+        <v>12.41189238218733</v>
+      </c>
+      <c r="G249">
+        <v>315.5983710453244</v>
+      </c>
+      <c r="H249">
+        <v>206.340135233421</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>59291</v>
+      </c>
+      <c r="C250">
+        <v>43925.70429483642</v>
+      </c>
+      <c r="D250">
+        <v>0.4786902774843912</v>
+      </c>
+      <c r="E250">
+        <v>11.10276183245347</v>
+      </c>
+      <c r="F250">
+        <v>12.37859761456376</v>
+      </c>
+      <c r="G250">
+        <v>316.0540828460866</v>
+      </c>
+      <c r="H250">
+        <v>185.6894542515719</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>59292</v>
+      </c>
+      <c r="C251">
+        <v>43924.76742742606</v>
+      </c>
+      <c r="D251">
+        <v>0.4767830364982361</v>
+      </c>
+      <c r="E251">
+        <v>11.10644771237908</v>
+      </c>
+      <c r="F251">
+        <v>12.34708151160558</v>
+      </c>
+      <c r="G251">
+        <v>316.5029497659513</v>
+      </c>
+      <c r="H251">
+        <v>164.9822282565373</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>59293</v>
+      </c>
+      <c r="C252">
+        <v>43922.41168325704</v>
+      </c>
+      <c r="D252">
+        <v>0.4748923007764692</v>
+      </c>
+      <c r="E252">
+        <v>11.1104222874801</v>
+      </c>
+      <c r="F252">
+        <v>12.31755292850987</v>
+      </c>
+      <c r="G252">
+        <v>316.9458493385803</v>
+      </c>
+      <c r="H252">
+        <v>144.215644978112</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>59294</v>
+      </c>
+      <c r="C253">
+        <v>43918.58475684198</v>
+      </c>
+      <c r="D253">
+        <v>0.4730097060029346</v>
+      </c>
+      <c r="E253">
+        <v>11.1144636202961</v>
+      </c>
+      <c r="F253">
+        <v>12.28977669634773</v>
+      </c>
+      <c r="G253">
+        <v>317.3843839368577</v>
+      </c>
+      <c r="H253">
+        <v>123.3877114756145</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>59295</v>
+      </c>
+      <c r="C254">
+        <v>43912.56837745892</v>
+      </c>
+      <c r="D254">
+        <v>0.4711286452740335</v>
+      </c>
+      <c r="E254">
+        <v>11.11825982426328</v>
+      </c>
+      <c r="F254">
+        <v>12.26364681266943</v>
+      </c>
+      <c r="G254">
+        <v>317.8196929331961</v>
+      </c>
+      <c r="H254">
+        <v>102.4957427255493</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>59296</v>
+      </c>
+      <c r="C255">
+        <v>43903.69831418879</v>
+      </c>
+      <c r="D255">
+        <v>0.4692339306120529</v>
+      </c>
+      <c r="E255">
+        <v>11.12151183054271</v>
+      </c>
+      <c r="F255">
+        <v>12.23967641143379</v>
+      </c>
+      <c r="G255">
+        <v>318.2526976073607</v>
+      </c>
+      <c r="H255">
+        <v>81.53355780647769</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>59297</v>
+      </c>
+      <c r="C256">
+        <v>43893.00129017022</v>
+      </c>
+      <c r="D256">
+        <v>0.4672863568730885</v>
+      </c>
+      <c r="E256">
+        <v>11.12417915109608</v>
+      </c>
+      <c r="F256">
+        <v>12.21826576813086</v>
+      </c>
+      <c r="G256">
+        <v>318.6876746314483</v>
+      </c>
+      <c r="H256">
+        <v>60.490283806915</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>59298</v>
+      </c>
+      <c r="C257">
+        <v>43884.4803981763</v>
+      </c>
+      <c r="D257">
+        <v>0.4652352804500203</v>
+      </c>
+      <c r="E257">
+        <v>11.12667163976505</v>
+      </c>
+      <c r="F257">
+        <v>12.19766363525794</v>
+      </c>
+      <c r="G257">
+        <v>319.1356745737814</v>
+      </c>
+      <c r="H257">
+        <v>39.35519113401945</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>59299</v>
+      </c>
+      <c r="C258">
+        <v>43885.38559441505</v>
+      </c>
+      <c r="D258">
+        <v>0.4630809336525709</v>
+      </c>
+      <c r="E258">
+        <v>11.12962527829187</v>
+      </c>
+      <c r="F258">
+        <v>12.17237274640325</v>
+      </c>
+      <c r="G258">
+        <v>319.6089043488261</v>
+      </c>
+      <c r="H258">
+        <v>18.12943529584875</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>59300</v>
+      </c>
+      <c r="C259">
+        <v>43900.4150574643</v>
+      </c>
+      <c r="D259">
+        <v>0.4608463278760881</v>
+      </c>
+      <c r="E259">
+        <v>11.1326045404953</v>
+      </c>
+      <c r="F259">
+        <v>12.13854887818668</v>
+      </c>
+      <c r="G259">
+        <v>320.0955892773497</v>
+      </c>
+      <c r="H259">
+        <v>356.8452966019894</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>59301</v>
+      </c>
+      <c r="C260">
+        <v>43923.72123241886</v>
+      </c>
+      <c r="D260">
+        <v>0.4584516245885036</v>
+      </c>
+      <c r="E260">
+        <v>11.13714024558859</v>
+      </c>
+      <c r="F260">
+        <v>12.09981702369973</v>
+      </c>
+      <c r="G260">
+        <v>320.5775386727299</v>
+      </c>
+      <c r="H260">
+        <v>335.5427965573623</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>59302</v>
+      </c>
+      <c r="C261">
+        <v>43949.80369890841</v>
+      </c>
+      <c r="D261">
+        <v>0.455917020243348</v>
+      </c>
+      <c r="E261">
+        <v>11.14404073908545</v>
+      </c>
+      <c r="F261">
+        <v>12.04927563103838</v>
+      </c>
+      <c r="G261">
+        <v>321.053763204193</v>
+      </c>
+      <c r="H261">
+        <v>314.2452109399062</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>59303</v>
+      </c>
+      <c r="C262">
+        <v>43972.33029936824</v>
+      </c>
+      <c r="D262">
+        <v>0.4533101589399401</v>
+      </c>
+      <c r="E262">
+        <v>11.15222482959077</v>
+      </c>
+      <c r="F262">
+        <v>11.9928342746697</v>
+      </c>
+      <c r="G262">
+        <v>321.5217978936438</v>
+      </c>
+      <c r="H262">
+        <v>292.9528797515343</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>59304</v>
+      </c>
+      <c r="C263">
+        <v>43987.39276130622</v>
+      </c>
+      <c r="D263">
+        <v>0.450736234952175</v>
+      </c>
+      <c r="E263">
+        <v>11.16079677886731</v>
+      </c>
+      <c r="F263">
+        <v>11.93693938529529</v>
+      </c>
+      <c r="G263">
+        <v>321.9864769957656</v>
+      </c>
+      <c r="H263">
+        <v>271.6464294679731</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>59305</v>
+      </c>
+      <c r="C264">
+        <v>43991.24088064855</v>
+      </c>
+      <c r="D264">
+        <v>0.4481696608799135</v>
+      </c>
+      <c r="E264">
+        <v>11.17015643759673</v>
+      </c>
+      <c r="F264">
+        <v>11.8857794796675</v>
+      </c>
+      <c r="G264">
+        <v>322.4630703816494</v>
+      </c>
+      <c r="H264">
+        <v>250.2695712846028</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>59306</v>
+      </c>
+      <c r="C265">
+        <v>43995.02525524883</v>
+      </c>
+      <c r="D265">
+        <v>0.4457559799744331</v>
+      </c>
+      <c r="E265">
+        <v>11.17835396641823</v>
+      </c>
+      <c r="F265">
+        <v>11.84046972270923</v>
+      </c>
+      <c r="G265">
+        <v>322.9230140521252</v>
+      </c>
+      <c r="H265">
+        <v>228.8787520911772</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>59307</v>
+      </c>
+      <c r="C266">
+        <v>43996.90253644135</v>
+      </c>
+      <c r="D266">
+        <v>0.4433882273553635</v>
+      </c>
+      <c r="E266">
+        <v>11.18630316375699</v>
+      </c>
+      <c r="F266">
+        <v>11.79926931309914</v>
+      </c>
+      <c r="G266">
+        <v>323.3820601574702</v>
+      </c>
+      <c r="H266">
+        <v>207.4415407985681</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>59308</v>
+      </c>
+      <c r="C267">
+        <v>43996.93682874405</v>
+      </c>
+      <c r="D267">
+        <v>0.4410433287079589</v>
+      </c>
+      <c r="E267">
+        <v>11.19396441900073</v>
+      </c>
+      <c r="F267">
+        <v>11.75990405840644</v>
+      </c>
+      <c r="G267">
+        <v>323.8439241084797</v>
+      </c>
+      <c r="H267">
+        <v>185.9575908755684</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>59309</v>
+      </c>
+      <c r="C268">
+        <v>43994.3558565338</v>
+      </c>
+      <c r="D268">
+        <v>0.4387015711076007</v>
+      </c>
+      <c r="E268">
+        <v>11.20137276295574</v>
+      </c>
+      <c r="F268">
+        <v>11.72058994001789</v>
+      </c>
+      <c r="G268">
+        <v>324.3102182266639</v>
+      </c>
+      <c r="H268">
+        <v>164.4259146468304</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>59310</v>
+      </c>
+      <c r="C269">
+        <v>43988.54182296311</v>
+      </c>
+      <c r="D269">
+        <v>0.4363377079176191</v>
+      </c>
+      <c r="E269">
+        <v>11.20872316640667</v>
+      </c>
+      <c r="F269">
+        <v>11.68026133059249</v>
+      </c>
+      <c r="G269">
+        <v>324.7797761925199</v>
+      </c>
+      <c r="H269">
+        <v>142.8452925530805</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>59311.00000000001</v>
+      </c>
+      <c r="C270">
+        <v>43979.50457516387</v>
+      </c>
+      <c r="D270">
+        <v>0.4339190563854389</v>
+      </c>
+      <c r="E270">
+        <v>11.21634457044683</v>
+      </c>
+      <c r="F270">
+        <v>11.63842269615269</v>
+      </c>
+      <c r="G270">
+        <v>325.2498634813817</v>
+      </c>
+      <c r="H270">
+        <v>121.2152667208575</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>59312</v>
+      </c>
+      <c r="C271">
+        <v>43968.06090022274</v>
+      </c>
+      <c r="D271">
+        <v>0.4314080435865639</v>
+      </c>
+      <c r="E271">
+        <v>11.22463897607832</v>
+      </c>
+      <c r="F271">
+        <v>11.59489405271725</v>
+      </c>
+      <c r="G271">
+        <v>325.7181555046282</v>
+      </c>
+      <c r="H271">
+        <v>99.53644009788962</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>59313.00000000001</v>
+      </c>
+      <c r="C272">
+        <v>43955.92273574368</v>
+      </c>
+      <c r="D272">
+        <v>0.4287691879274175</v>
+      </c>
+      <c r="E272">
+        <v>11.23401781078028</v>
+      </c>
+      <c r="F272">
+        <v>11.54953960470078</v>
+      </c>
+      <c r="G272">
+        <v>326.1847261119354</v>
+      </c>
+      <c r="H272">
+        <v>77.81033746349428</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>59314</v>
+      </c>
+      <c r="C273">
+        <v>43945.75728738314</v>
+      </c>
+      <c r="D273">
+        <v>0.4259834947903449</v>
+      </c>
+      <c r="E273">
+        <v>11.24484079384091</v>
+      </c>
+      <c r="F273">
+        <v>11.50200157689194</v>
+      </c>
+      <c r="G273">
+        <v>326.6533138534263</v>
+      </c>
+      <c r="H273">
+        <v>56.03948610797126</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>59315</v>
+      </c>
+      <c r="C274">
+        <v>43941.26721385173</v>
+      </c>
+      <c r="D274">
+        <v>0.4230752932126749</v>
+      </c>
+      <c r="E274">
+        <v>11.25734041619282</v>
+      </c>
+      <c r="F274">
+        <v>11.45133541603664</v>
+      </c>
+      <c r="G274">
+        <v>327.1300852926576</v>
+      </c>
+      <c r="H274">
+        <v>34.22900079370561</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>59316</v>
+      </c>
+      <c r="C275">
+        <v>43947.13561751806</v>
+      </c>
+      <c r="D275">
+        <v>0.4201379519762947</v>
+      </c>
+      <c r="E275">
+        <v>11.27122215031591</v>
+      </c>
+      <c r="F275">
+        <v>11.39536878792961</v>
+      </c>
+      <c r="G275">
+        <v>327.6151036706693</v>
+      </c>
+      <c r="H275">
+        <v>12.39352513762073</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>59317</v>
+      </c>
+      <c r="C276">
+        <v>43964.27460221272</v>
+      </c>
+      <c r="D276">
+        <v>0.4172225534418458</v>
+      </c>
+      <c r="E276">
+        <v>11.28508835539196</v>
+      </c>
+      <c r="F276">
+        <v>11.33683260528258</v>
+      </c>
+      <c r="G276">
+        <v>328.0897870548769</v>
+      </c>
+      <c r="H276">
+        <v>350.5647869517446</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>59318</v>
+      </c>
+      <c r="C277">
+        <v>43987.38315868245</v>
+      </c>
+      <c r="D277">
+        <v>0.414291136282447</v>
+      </c>
+      <c r="E277">
+        <v>11.29958745563559</v>
+      </c>
+      <c r="F277">
+        <v>11.27948371480995</v>
+      </c>
+      <c r="G277">
+        <v>328.5492082283332</v>
+      </c>
+      <c r="H277">
+        <v>328.7655565495288</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>59319</v>
+      </c>
+      <c r="C278">
+        <v>44007.53463785027</v>
+      </c>
+      <c r="D278">
+        <v>0.4113051790128004</v>
+      </c>
+      <c r="E278">
+        <v>11.3142589116768</v>
+      </c>
+      <c r="F278">
+        <v>11.2201545275093</v>
+      </c>
+      <c r="G278">
+        <v>329.0054402172918</v>
+      </c>
+      <c r="H278">
+        <v>306.9964071996768</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>59320</v>
+      </c>
+      <c r="C279">
+        <v>44020.55200636213</v>
+      </c>
+      <c r="D279">
+        <v>0.4082916405488968</v>
+      </c>
+      <c r="E279">
+        <v>11.3283008127112</v>
+      </c>
+      <c r="F279">
+        <v>11.16256025915295</v>
+      </c>
+      <c r="G279">
+        <v>329.4653971791359</v>
+      </c>
+      <c r="H279">
+        <v>285.2439493977225</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>59321</v>
+      </c>
+      <c r="C280">
+        <v>44026.88478776322</v>
+      </c>
+      <c r="D280">
+        <v>0.4053030174245333</v>
+      </c>
+      <c r="E280">
+        <v>11.34151946680951</v>
+      </c>
+      <c r="F280">
+        <v>11.10947224334932</v>
+      </c>
+      <c r="G280">
+        <v>329.9292648237477</v>
+      </c>
+      <c r="H280">
+        <v>263.497939224495</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>59322</v>
+      </c>
+      <c r="C281">
+        <v>44028.12655731359</v>
+      </c>
+      <c r="D281">
+        <v>0.4023622310533715</v>
+      </c>
+      <c r="E281">
+        <v>11.35395222984768</v>
+      </c>
+      <c r="F281">
+        <v>11.06191144009528</v>
+      </c>
+      <c r="G281">
+        <v>330.3952152137119</v>
+      </c>
+      <c r="H281">
+        <v>241.7501168550232</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>59323</v>
+      </c>
+      <c r="C282">
+        <v>44026.00331494862</v>
+      </c>
+      <c r="D282">
+        <v>0.3994624325963666</v>
+      </c>
+      <c r="E282">
+        <v>11.36574125270444</v>
+      </c>
+      <c r="F282">
+        <v>11.01955119719245</v>
+      </c>
+      <c r="G282">
+        <v>330.861934957288</v>
+      </c>
+      <c r="H282">
+        <v>219.995348536974</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>59324</v>
+      </c>
+      <c r="C283">
+        <v>44021.81310004825</v>
+      </c>
+      <c r="D283">
+        <v>0.3965791839375991</v>
+      </c>
+      <c r="E283">
+        <v>11.37709980780678</v>
+      </c>
+      <c r="F283">
+        <v>10.98090430455353</v>
+      </c>
+      <c r="G283">
+        <v>331.3296134647985</v>
+      </c>
+      <c r="H283">
+        <v>198.2314947854789</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>59325.00000000001</v>
+      </c>
+      <c r="C284">
+        <v>44015.84408237098</v>
+      </c>
+      <c r="D284">
+        <v>0.3936877497059443</v>
+      </c>
+      <c r="E284">
+        <v>11.38824809050022</v>
+      </c>
+      <c r="F284">
+        <v>10.94374453563923</v>
+      </c>
+      <c r="G284">
+        <v>331.7993019375979</v>
+      </c>
+      <c r="H284">
+        <v>176.4586582157851</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>59326</v>
+      </c>
+      <c r="C285">
+        <v>44007.14282936411</v>
+      </c>
+      <c r="D285">
+        <v>0.3907752129619812</v>
+      </c>
+      <c r="E285">
+        <v>11.39933619363167</v>
+      </c>
+      <c r="F285">
+        <v>10.90610416589007</v>
+      </c>
+      <c r="G285">
+        <v>332.2708682009847</v>
+      </c>
+      <c r="H285">
+        <v>154.6768347110258</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>59327</v>
+      </c>
+      <c r="C286">
+        <v>43994.65529383923</v>
+      </c>
+      <c r="D286">
+        <v>0.3878251948091464</v>
+      </c>
+      <c r="E286">
+        <v>11.41053925589091</v>
+      </c>
+      <c r="F286">
+        <v>10.86734248478548</v>
+      </c>
+      <c r="G286">
+        <v>332.741820687032</v>
+      </c>
+      <c r="H286">
+        <v>132.8823387540398</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>59328</v>
+      </c>
+      <c r="C287">
+        <v>43979.42409797814</v>
+      </c>
+      <c r="D287">
+        <v>0.3847847091972871</v>
+      </c>
+      <c r="E287">
+        <v>11.42238639819264</v>
+      </c>
+      <c r="F287">
+        <v>10.82777900401622</v>
+      </c>
+      <c r="G287">
+        <v>333.2097786240259</v>
+      </c>
+      <c r="H287">
+        <v>111.0686876561361</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>59329</v>
+      </c>
+      <c r="C288">
+        <v>43964.76306697711</v>
+      </c>
+      <c r="D288">
+        <v>0.3815793777089608</v>
+      </c>
+      <c r="E288">
+        <v>11.43580899666674</v>
+      </c>
+      <c r="F288">
+        <v>10.78730678681955</v>
+      </c>
+      <c r="G288">
+        <v>333.6746003253821</v>
+      </c>
+      <c r="H288">
+        <v>89.2352464762433</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>59330</v>
+      </c>
+      <c r="C289">
+        <v>43953.81174812446</v>
+      </c>
+      <c r="D289">
+        <v>0.3781809564514962</v>
+      </c>
+      <c r="E289">
+        <v>11.45157024669509</v>
+      </c>
+      <c r="F289">
+        <v>10.74557373494013</v>
+      </c>
+      <c r="G289">
+        <v>334.1352704623643</v>
+      </c>
+      <c r="H289">
+        <v>67.39301778066122</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>59331</v>
+      </c>
+      <c r="C290">
+        <v>43948.22975591528</v>
+      </c>
+      <c r="D290">
+        <v>0.3746466285726819</v>
+      </c>
+      <c r="E290">
+        <v>11.46968397324564</v>
+      </c>
+      <c r="F290">
+        <v>10.70311639565782</v>
+      </c>
+      <c r="G290">
+        <v>334.5880550134308</v>
+      </c>
+      <c r="H290">
+        <v>45.55778863632968</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>59332</v>
+      </c>
+      <c r="C291">
+        <v>43949.96629874413</v>
+      </c>
+      <c r="D291">
+        <v>0.3711084220972176</v>
+      </c>
+      <c r="E291">
+        <v>11.48934849416374</v>
+      </c>
+      <c r="F291">
+        <v>10.66049449312877</v>
+      </c>
+      <c r="G291">
+        <v>335.0302366320323</v>
+      </c>
+      <c r="H291">
+        <v>23.73972830236876</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>59333</v>
+      </c>
+      <c r="C292">
+        <v>43962.23442463246</v>
+      </c>
+      <c r="D292">
+        <v>0.3677092669637232</v>
+      </c>
+      <c r="E292">
+        <v>11.50885973398965</v>
+      </c>
+      <c r="F292">
+        <v>10.61713291543144</v>
+      </c>
+      <c r="G292">
+        <v>335.4576963476727</v>
+      </c>
+      <c r="H292">
+        <v>1.948991013049115</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>59334</v>
+      </c>
+      <c r="C293">
+        <v>43983.59434603444</v>
+      </c>
+      <c r="D293">
+        <v>0.3644564919542804</v>
+      </c>
+      <c r="E293">
+        <v>11.52685050809142</v>
+      </c>
+      <c r="F293">
+        <v>10.57570732301926</v>
+      </c>
+      <c r="G293">
+        <v>335.8666846345403</v>
+      </c>
+      <c r="H293">
+        <v>340.1983509178353</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>59335</v>
+      </c>
+      <c r="C294">
+        <v>44004.95424205402</v>
+      </c>
+      <c r="D294">
+        <v>0.361237448913476</v>
+      </c>
+      <c r="E294">
+        <v>11.54350388173595</v>
+      </c>
+      <c r="F294">
+        <v>10.53386431691123</v>
+      </c>
+      <c r="G294">
+        <v>336.2752074117904</v>
+      </c>
+      <c r="H294">
+        <v>318.4801133932243</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>59336</v>
+      </c>
+      <c r="C295">
+        <v>44018.72377458937</v>
+      </c>
+      <c r="D295">
+        <v>0.3579654497737703</v>
+      </c>
+      <c r="E295">
+        <v>11.55851454885589</v>
+      </c>
+      <c r="F295">
+        <v>10.49035466748724</v>
+      </c>
+      <c r="G295">
+        <v>336.7032771357829</v>
+      </c>
+      <c r="H295">
+        <v>296.7671574349121</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>59337</v>
+      </c>
+      <c r="C296">
+        <v>44026.0198582293</v>
+      </c>
+      <c r="D296">
+        <v>0.3546402451300997</v>
+      </c>
+      <c r="E296">
+        <v>11.5722592039229</v>
+      </c>
+      <c r="F296">
+        <v>10.44712941288992</v>
+      </c>
+      <c r="G296">
+        <v>337.149996165929</v>
+      </c>
+      <c r="H296">
+        <v>275.0476132188626</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>59338</v>
+      </c>
+      <c r="C297">
+        <v>44029.23357827737</v>
+      </c>
+      <c r="D297">
+        <v>0.3512740873429142</v>
+      </c>
+      <c r="E297">
+        <v>11.58536676499006</v>
+      </c>
+      <c r="F297">
+        <v>10.4044641957473</v>
+      </c>
+      <c r="G297">
+        <v>337.6084098334906</v>
+      </c>
+      <c r="H297">
+        <v>253.324121007724</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>59339</v>
+      </c>
+      <c r="C298">
+        <v>44028.91454141751</v>
+      </c>
+      <c r="D298">
+        <v>0.3478794648011041</v>
+      </c>
+      <c r="E298">
+        <v>11.59825871476562</v>
+      </c>
+      <c r="F298">
+        <v>10.36205080562999</v>
+      </c>
+      <c r="G298">
+        <v>338.0736137901501</v>
+      </c>
+      <c r="H298">
+        <v>231.5995708362037</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>59340</v>
+      </c>
+      <c r="C299">
+        <v>44024.87356003417</v>
+      </c>
+      <c r="D299">
+        <v>0.3444684465563586</v>
+      </c>
+      <c r="E299">
+        <v>11.61120717674569</v>
+      </c>
+      <c r="F299">
+        <v>10.32009846137011</v>
+      </c>
+      <c r="G299">
+        <v>338.5403545052191</v>
+      </c>
+      <c r="H299">
+        <v>209.8744062046326</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>59341</v>
+      </c>
+      <c r="C300">
+        <v>44017.11381797792</v>
+      </c>
+      <c r="D300">
+        <v>0.3410458397893387</v>
+      </c>
+      <c r="E300">
+        <v>11.62443439077524</v>
+      </c>
+      <c r="F300">
+        <v>10.27935176836937</v>
+      </c>
+      <c r="G300">
+        <v>339.0019988824387</v>
+      </c>
+      <c r="H300">
+        <v>188.1479913071561</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>59342.00000000001</v>
+      </c>
+      <c r="C301">
+        <v>44006.13049526845</v>
+      </c>
+      <c r="D301">
+        <v>0.3376047637232543</v>
+      </c>
+      <c r="E301">
+        <v>11.63815152090687</v>
+      </c>
+      <c r="F301">
+        <v>10.24076814455599</v>
+      </c>
+      <c r="G301">
+        <v>339.4516991282809</v>
+      </c>
+      <c r="H301">
+        <v>166.4196809921264</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>59343</v>
+      </c>
+      <c r="C302">
+        <v>43992.96219821135</v>
+      </c>
+      <c r="D302">
+        <v>0.3341268632316257</v>
+      </c>
+      <c r="E302">
+        <v>11.65255966485929</v>
+      </c>
+      <c r="F302">
+        <v>10.20518688276539</v>
+      </c>
+      <c r="G302">
+        <v>339.8842518792408</v>
+      </c>
+      <c r="H302">
+        <v>144.6891753907198</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>59344</v>
+      </c>
+      <c r="C303">
+        <v>43979.14450305347</v>
+      </c>
+      <c r="D303">
+        <v>0.3305871486870965</v>
+      </c>
+      <c r="E303">
+        <v>11.66782939636096</v>
+      </c>
+      <c r="F303">
+        <v>10.1730511424027</v>
+      </c>
+      <c r="G303">
+        <v>340.29781705042</v>
+      </c>
+      <c r="H303">
+        <v>122.9564419352358</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>59345</v>
+      </c>
+      <c r="C304">
+        <v>43966.51018974395</v>
+      </c>
+      <c r="D304">
+        <v>0.3269637610308921</v>
+      </c>
+      <c r="E304">
+        <v>11.68406111308385</v>
+      </c>
+      <c r="F304">
+        <v>10.14421906220592</v>
+      </c>
+      <c r="G304">
+        <v>340.6947743111086</v>
+      </c>
+      <c r="H304">
+        <v>101.2216236575246</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>59346</v>
+      </c>
+      <c r="C305">
+        <v>43956.7398870555</v>
+      </c>
+      <c r="D305">
+        <v>0.3232516525411956</v>
+      </c>
+      <c r="E305">
+        <v>11.70123023258134</v>
+      </c>
+      <c r="F305">
+        <v>10.11799195010127</v>
+      </c>
+      <c r="G305">
+        <v>341.0806749888755</v>
+      </c>
+      <c r="H305">
+        <v>79.48533525445087</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>59347</v>
+      </c>
+      <c r="C306">
+        <v>43950.96860672663</v>
+      </c>
+      <c r="D306">
+        <v>0.3194746610898785</v>
+      </c>
+      <c r="E306">
+        <v>11.71916195284664</v>
+      </c>
+      <c r="F306">
+        <v>10.09349930859298</v>
+      </c>
+      <c r="G306">
+        <v>341.4612020591713</v>
+      </c>
+      <c r="H306">
+        <v>57.74875468700661</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>59348</v>
+      </c>
+      <c r="C307">
+        <v>43950.75149186617</v>
+      </c>
+      <c r="D307">
+        <v>0.3156925994942967</v>
+      </c>
+      <c r="E307">
+        <v>11.73760886585385</v>
+      </c>
+      <c r="F307">
+        <v>10.06987184128751</v>
+      </c>
+      <c r="G307">
+        <v>341.8408658882634</v>
+      </c>
+      <c r="H307">
+        <v>36.01219253615782</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>59349</v>
+      </c>
+      <c r="C308">
+        <v>43959.70184499408</v>
+      </c>
+      <c r="D308">
+        <v>0.3120002409960834</v>
+      </c>
+      <c r="E308">
+        <v>11.75614764244478</v>
+      </c>
+      <c r="F308">
+        <v>10.04509767130972</v>
+      </c>
+      <c r="G308">
+        <v>342.2222629002368</v>
+      </c>
+      <c r="H308">
+        <v>14.27995736753527</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>59350</v>
+      </c>
+      <c r="C309">
+        <v>43978.56828481248</v>
+      </c>
+      <c r="D309">
+        <v>0.3084330340532238</v>
+      </c>
+      <c r="E309">
+        <v>11.77375711023732</v>
+      </c>
+      <c r="F309">
+        <v>10.01776416697251</v>
+      </c>
+      <c r="G309">
+        <v>342.597568756691</v>
+      </c>
+      <c r="H309">
+        <v>352.5725940720237</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>59351</v>
+      </c>
+      <c r="C310">
+        <v>44000.23408192724</v>
+      </c>
+      <c r="D310">
+        <v>0.3048905130135626</v>
+      </c>
+      <c r="E310">
+        <v>11.78995896595505</v>
+      </c>
+      <c r="F310">
+        <v>9.989326390877045</v>
+      </c>
+      <c r="G310">
+        <v>342.9642632762651</v>
+      </c>
+      <c r="H310">
+        <v>330.9019154005722</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>59352</v>
+      </c>
+      <c r="C311">
+        <v>44017.00009920043</v>
+      </c>
+      <c r="D311">
+        <v>0.3012807927732689</v>
+      </c>
+      <c r="E311">
+        <v>11.80479763029405</v>
+      </c>
+      <c r="F311">
+        <v>9.958945905510674</v>
+      </c>
+      <c r="G311">
+        <v>343.3393472661215</v>
+      </c>
+      <c r="H311">
+        <v>309.2505021700694</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>59353</v>
+      </c>
+      <c r="C312">
+        <v>44026.52124182457</v>
+      </c>
+      <c r="D312">
+        <v>0.2975949563218786</v>
+      </c>
+      <c r="E312">
+        <v>11.81820780650917</v>
+      </c>
+      <c r="F312">
+        <v>9.926690946914357</v>
+      </c>
+      <c r="G312">
+        <v>343.7365333592417</v>
+      </c>
+      <c r="H312">
+        <v>287.5954145798164</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>59354</v>
+      </c>
+      <c r="C313">
+        <v>44030.29872284052</v>
+      </c>
+      <c r="D313">
+        <v>0.2938498438477124</v>
+      </c>
+      <c r="E313">
+        <v>11.83056505117359</v>
+      </c>
+      <c r="F313">
+        <v>9.893602540812875</v>
+      </c>
+      <c r="G313">
+        <v>344.1545496466875</v>
+      </c>
+      <c r="H313">
+        <v>265.928379352485</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>59355</v>
+      </c>
+      <c r="C314">
+        <v>44030.40720330109</v>
+      </c>
+      <c r="D314">
+        <v>0.2900493239643679</v>
+      </c>
+      <c r="E314">
+        <v>11.84254208645433</v>
+      </c>
+      <c r="F314">
+        <v>9.860213865115838</v>
+      </c>
+      <c r="G314">
+        <v>344.5836766385346</v>
+      </c>
+      <c r="H314">
+        <v>244.2546169873851</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>59356</v>
+      </c>
+      <c r="C315">
+        <v>44027.37649126964</v>
+      </c>
+      <c r="D315">
+        <v>0.2862043761777286</v>
+      </c>
+      <c r="E315">
+        <v>11.85471074804524</v>
+      </c>
+      <c r="F315">
+        <v>9.826887257973056</v>
+      </c>
+      <c r="G315">
+        <v>345.0130548374968</v>
+      </c>
+      <c r="H315">
+        <v>222.5838001006984</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>59357</v>
+      </c>
+      <c r="C316">
+        <v>44019.84818424745</v>
+      </c>
+      <c r="D316">
+        <v>0.28235259645384</v>
+      </c>
+      <c r="E316">
+        <v>11.86729696293644</v>
+      </c>
+      <c r="F316">
+        <v>9.794908739812522</v>
+      </c>
+      <c r="G316">
+        <v>345.4330432622592</v>
+      </c>
+      <c r="H316">
+        <v>200.9200753802271</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>59358</v>
+      </c>
+      <c r="C317">
+        <v>44007.26078742585</v>
+      </c>
+      <c r="D317">
+        <v>0.2785168720552208</v>
+      </c>
+      <c r="E317">
+        <v>11.88038804501647</v>
+      </c>
+      <c r="F317">
+        <v>9.766955843111026</v>
+      </c>
+      <c r="G317">
+        <v>345.8333887246521</v>
+      </c>
+      <c r="H317">
+        <v>179.2594384310833</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>59359</v>
+      </c>
+      <c r="C318">
+        <v>43992.34326984521</v>
+      </c>
+      <c r="D318">
+        <v>0.2746603453971587</v>
+      </c>
+      <c r="E318">
+        <v>11.89422185785406</v>
+      </c>
+      <c r="F318">
+        <v>9.745575955553322</v>
+      </c>
+      <c r="G318">
+        <v>346.2045001404061</v>
+      </c>
+      <c r="H318">
+        <v>157.5992165528609</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>59360</v>
+      </c>
+      <c r="C319">
+        <v>43978.72909903385</v>
+      </c>
+      <c r="D319">
+        <v>0.2707388714082427</v>
+      </c>
+      <c r="E319">
+        <v>11.90887289633501</v>
+      </c>
+      <c r="F319">
+        <v>9.731355965836048</v>
+      </c>
+      <c r="G319">
+        <v>346.5426161663478</v>
+      </c>
+      <c r="H319">
+        <v>135.9449623828824</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>59361</v>
+      </c>
+      <c r="C320">
+        <v>43967.80814864567</v>
+      </c>
+      <c r="D320">
+        <v>0.2667595096026709</v>
+      </c>
+      <c r="E320">
+        <v>11.923930993111</v>
+      </c>
+      <c r="F320">
+        <v>9.722991130327383</v>
+      </c>
+      <c r="G320">
+        <v>346.8509914157789</v>
+      </c>
+      <c r="H320">
+        <v>114.3040809623987</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>59362.00000000001</v>
+      </c>
+      <c r="C321">
+        <v>43959.16505059643</v>
+      </c>
+      <c r="D321">
+        <v>0.2627589024982283</v>
+      </c>
+      <c r="E321">
+        <v>11.93879683859876</v>
+      </c>
+      <c r="F321">
+        <v>9.718337158903081</v>
+      </c>
+      <c r="G321">
+        <v>347.1381862535679</v>
+      </c>
+      <c r="H321">
+        <v>92.67625707807439</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>59363</v>
+      </c>
+      <c r="C322">
+        <v>43952.84547496506</v>
+      </c>
+      <c r="D322">
+        <v>0.2587630841579315</v>
+      </c>
+      <c r="E322">
+        <v>11.95317002914687</v>
+      </c>
+      <c r="F322">
+        <v>9.715176832592464</v>
+      </c>
+      <c r="G322">
+        <v>347.4175326178919</v>
+      </c>
+      <c r="H322">
+        <v>71.05066348269757</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>59364</v>
+      </c>
+      <c r="C323">
+        <v>43951.02726386946</v>
+      </c>
+      <c r="D323">
+        <v>0.2547894569911956</v>
+      </c>
+      <c r="E323">
+        <v>11.96723371606872</v>
+      </c>
+      <c r="F323">
+        <v>9.711264290386451</v>
+      </c>
+      <c r="G323">
+        <v>347.7064543270306</v>
+      </c>
+      <c r="H323">
+        <v>49.41150758666986</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>59365</v>
+      </c>
+      <c r="C324">
+        <v>43957.66694050943</v>
+      </c>
+      <c r="D324">
+        <v>0.2508762167006928</v>
+      </c>
+      <c r="E324">
+        <v>11.98139391982813</v>
+      </c>
+      <c r="F324">
+        <v>9.703686306743858</v>
+      </c>
+      <c r="G324">
+        <v>348.0189524138773</v>
+      </c>
+      <c r="H324">
+        <v>27.75266942832443</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>59366</v>
+      </c>
+      <c r="C325">
+        <v>43974.32185955523</v>
+      </c>
+      <c r="D325">
+        <v>0.2470472859833431</v>
+      </c>
+      <c r="E325">
+        <v>11.99564562593528</v>
+      </c>
+      <c r="F325">
+        <v>9.68927115505794</v>
+      </c>
+      <c r="G325">
+        <v>348.3492363714823</v>
+      </c>
+      <c r="H325">
+        <v>6.095389542752231</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>59367.00000000001</v>
+      </c>
+      <c r="C326">
+        <v>43995.21359232719</v>
+      </c>
+      <c r="D326">
+        <v>0.2432095459928524</v>
+      </c>
+      <c r="E326">
+        <v>12.00948835585257</v>
+      </c>
+      <c r="F326">
+        <v>9.667955190851604</v>
+      </c>
+      <c r="G326">
+        <v>348.6766522066316</v>
+      </c>
+      <c r="H326">
+        <v>344.472020684388</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>59368</v>
+      </c>
+      <c r="C327">
+        <v>44012.99413537781</v>
+      </c>
+      <c r="D327">
+        <v>0.2392464552827618</v>
+      </c>
+      <c r="E327">
+        <v>12.02281750557943</v>
+      </c>
+      <c r="F327">
+        <v>9.642360201599645</v>
+      </c>
+      <c r="G327">
+        <v>348.9953912563616</v>
+      </c>
+      <c r="H327">
+        <v>322.8869508513722</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>59369</v>
+      </c>
+      <c r="C328">
+        <v>44025.53660903796</v>
+      </c>
+      <c r="D328">
+        <v>0.2351515264169516</v>
+      </c>
+      <c r="E328">
+        <v>12.03576089612143</v>
+      </c>
+      <c r="F328">
+        <v>9.614136671177867</v>
+      </c>
+      <c r="G328">
+        <v>349.3103918356222</v>
+      </c>
+      <c r="H328">
+        <v>301.3291064410259</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>59370</v>
+      </c>
+      <c r="C329">
+        <v>44032.60743119515</v>
+      </c>
+      <c r="D329">
+        <v>0.230974336466879</v>
+      </c>
+      <c r="E329">
+        <v>12.04826469155691</v>
+      </c>
+      <c r="F329">
+        <v>9.584710050825468</v>
+      </c>
+      <c r="G329">
+        <v>349.6259303009377</v>
+      </c>
+      <c r="H329">
+        <v>279.7886314293588</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>59371</v>
+      </c>
+      <c r="C330">
+        <v>44033.896484959</v>
+      </c>
+      <c r="D330">
+        <v>0.2267737334135303</v>
+      </c>
+      <c r="E330">
+        <v>12.06022494954518</v>
+      </c>
+      <c r="F330">
+        <v>9.555980955543824</v>
+      </c>
+      <c r="G330">
+        <v>349.9424903224347</v>
+      </c>
+      <c r="H330">
+        <v>258.2573498116019</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>59372</v>
+      </c>
+      <c r="C331">
+        <v>44029.5272806999</v>
+      </c>
+      <c r="D331">
+        <v>0.2225995892027032</v>
+      </c>
+      <c r="E331">
+        <v>12.07159202309646</v>
+      </c>
+      <c r="F331">
+        <v>9.529956249277811</v>
+      </c>
+      <c r="G331">
+        <v>350.2545421420202</v>
+      </c>
+      <c r="H331">
+        <v>236.7304146712811</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>59373</v>
+      </c>
+      <c r="C332">
+        <v>44020.32971078926</v>
+      </c>
+      <c r="D332">
+        <v>0.218478886406174</v>
+      </c>
+      <c r="E332">
+        <v>12.08238690915458</v>
+      </c>
+      <c r="F332">
+        <v>9.508360571564786</v>
+      </c>
+      <c r="G332">
+        <v>350.5520319885622</v>
+      </c>
+      <c r="H332">
+        <v>215.2068552547359</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>59374</v>
+      </c>
+      <c r="C333">
+        <v>44007.77358934184</v>
+      </c>
+      <c r="D333">
+        <v>0.2144098411066824</v>
+      </c>
+      <c r="E333">
+        <v>12.09269606637495</v>
+      </c>
+      <c r="F333">
+        <v>9.492351614009236</v>
+      </c>
+      <c r="G333">
+        <v>350.8243119246042</v>
+      </c>
+      <c r="H333">
+        <v>193.6883098125352</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>59375</v>
+      </c>
+      <c r="C334">
+        <v>43993.78011452843</v>
+      </c>
+      <c r="D334">
+        <v>0.2103655984906918</v>
+      </c>
+      <c r="E334">
+        <v>12.10265725065183</v>
+      </c>
+      <c r="F334">
+        <v>9.482281089659484</v>
+      </c>
+      <c r="G334">
+        <v>351.0643003786844</v>
+      </c>
+      <c r="H334">
+        <v>172.1772230946727</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>59376</v>
+      </c>
+      <c r="C335">
+        <v>43980.36369648847</v>
+      </c>
+      <c r="D335">
+        <v>0.2063074078706042</v>
+      </c>
+      <c r="E335">
+        <v>12.11242480875573</v>
+      </c>
+      <c r="F335">
+        <v>9.477537179566912</v>
+      </c>
+      <c r="G335">
+        <v>351.2711825145248</v>
+      </c>
+      <c r="H335">
+        <v>150.6755024866686</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>59377</v>
+      </c>
+      <c r="C336">
+        <v>43969.00105837867</v>
+      </c>
+      <c r="D336">
+        <v>0.202205212942855</v>
+      </c>
+      <c r="E336">
+        <v>12.12210154120154</v>
+      </c>
+      <c r="F336">
+        <v>9.476645315512298</v>
+      </c>
+      <c r="G336">
+        <v>351.4498242992561</v>
+      </c>
+      <c r="H336">
+        <v>129.1843620435014</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>59378</v>
+      </c>
+      <c r="C337">
+        <v>43960.07182147007</v>
+      </c>
+      <c r="D337">
+        <v>0.1980547603686933</v>
+      </c>
+      <c r="E337">
+        <v>12.13167074316869</v>
+      </c>
+      <c r="F337">
+        <v>9.477879048161171</v>
+      </c>
+      <c r="G337">
+        <v>351.606761884927</v>
+      </c>
+      <c r="H337">
+        <v>107.7044282020934</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>59379</v>
+      </c>
+      <c r="C338">
+        <v>43953.60068395856</v>
+      </c>
+      <c r="D338">
+        <v>0.1938736044985289</v>
+      </c>
+      <c r="E338">
+        <v>12.14106458742049</v>
+      </c>
+      <c r="F338">
+        <v>9.480106909117287</v>
+      </c>
+      <c r="G338">
+        <v>351.7493058869297</v>
+      </c>
+      <c r="H338">
+        <v>86.23176072066389</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>59380</v>
+      </c>
+      <c r="C339">
+        <v>43951.37996001568</v>
+      </c>
+      <c r="D339">
+        <v>0.189687285882789</v>
+      </c>
+      <c r="E339">
+        <v>12.1504056054761</v>
+      </c>
+      <c r="F339">
+        <v>9.482511347926602</v>
+      </c>
+      <c r="G339">
+        <v>351.8929772142437</v>
+      </c>
+      <c r="H339">
+        <v>64.75203858142856</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>59381</v>
+      </c>
+      <c r="C340">
+        <v>43956.76494351499</v>
+      </c>
+      <c r="D340">
+        <v>0.1855350914148743</v>
+      </c>
+      <c r="E340">
+        <v>12.16003703531064</v>
+      </c>
+      <c r="F340">
+        <v>9.483056689717209</v>
+      </c>
+      <c r="G340">
+        <v>352.0577950585649</v>
+      </c>
+      <c r="H340">
+        <v>43.25239488136575</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>59382</v>
+      </c>
+      <c r="C341">
+        <v>43970.86946769</v>
+      </c>
+      <c r="D341">
+        <v>0.1814494002180396</v>
+      </c>
+      <c r="E341">
+        <v>12.17014191277731</v>
+      </c>
+      <c r="F341">
+        <v>9.478483193685795</v>
+      </c>
+      <c r="G341">
+        <v>352.2435768758415</v>
+      </c>
+      <c r="H341">
+        <v>21.74710346870393</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>59383</v>
+      </c>
+      <c r="C342">
+        <v>43990.1349190835</v>
+      </c>
+      <c r="D342">
+        <v>0.1773884222440244</v>
+      </c>
+      <c r="E342">
+        <v>12.18050076602831</v>
+      </c>
+      <c r="F342">
+        <v>9.466920980402543</v>
+      </c>
+      <c r="G342">
+        <v>352.4242867438805</v>
+      </c>
+      <c r="H342">
+        <v>0.2740260672478917</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>59384</v>
+      </c>
+      <c r="C343">
+        <v>44008.71031541763</v>
+      </c>
+      <c r="D343">
+        <v>0.1732469274612199</v>
+      </c>
+      <c r="E343">
+        <v>12.19086183321012</v>
+      </c>
+      <c r="F343">
+        <v>9.449847346815668</v>
+      </c>
+      <c r="G343">
+        <v>352.5770995350001</v>
+      </c>
+      <c r="H343">
+        <v>338.8580032097618</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>59385</v>
+      </c>
+      <c r="C344">
+        <v>44022.90331440702</v>
+      </c>
+      <c r="D344">
+        <v>0.1689659723339202</v>
+      </c>
+      <c r="E344">
+        <v>12.2012477671242</v>
+      </c>
+      <c r="F344">
+        <v>9.430286754888753</v>
+      </c>
+      <c r="G344">
+        <v>352.6969617478358</v>
+      </c>
+      <c r="H344">
+        <v>317.4985464694511</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>59386</v>
+      </c>
+      <c r="C345">
+        <v>44032.212231862</v>
+      </c>
+      <c r="D345">
+        <v>0.1645777114886741</v>
+      </c>
+      <c r="E345">
+        <v>12.21160260896373</v>
+      </c>
+      <c r="F345">
+        <v>9.410598646880976</v>
+      </c>
+      <c r="G345">
+        <v>352.7832342287896</v>
+      </c>
+      <c r="H345">
+        <v>296.1902898121621</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>59387</v>
+      </c>
+      <c r="C346">
+        <v>44036.40601402389</v>
+      </c>
+      <c r="D346">
+        <v>0.1601635309147837</v>
+      </c>
+      <c r="E346">
+        <v>12.2214838319731</v>
+      </c>
+      <c r="F346">
+        <v>9.39223630384104</v>
+      </c>
+      <c r="G346">
+        <v>352.8394025319138</v>
+      </c>
+      <c r="H346">
+        <v>274.9257534391256</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>59388</v>
+      </c>
+      <c r="C347">
+        <v>44033.50494984343</v>
+      </c>
+      <c r="D347">
+        <v>0.1558101162143743</v>
+      </c>
+      <c r="E347">
+        <v>12.23021633790641</v>
+      </c>
+      <c r="F347">
+        <v>9.376612217205667</v>
+      </c>
+      <c r="G347">
+        <v>352.8811281879464</v>
+      </c>
+      <c r="H347">
+        <v>253.6806603269276</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>59389</v>
+      </c>
+      <c r="C348">
+        <v>44023.17121691749</v>
+      </c>
+      <c r="D348">
+        <v>0.151562511346203</v>
+      </c>
+      <c r="E348">
+        <v>12.23745610124047</v>
+      </c>
+      <c r="F348">
+        <v>9.36573471099012</v>
+      </c>
+      <c r="G348">
+        <v>352.9140710807674</v>
+      </c>
+      <c r="H348">
+        <v>232.4318025212382</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>59390</v>
+      </c>
+      <c r="C349">
+        <v>44009.24646590575</v>
+      </c>
+      <c r="D349">
+        <v>0.147392782134373</v>
+      </c>
+      <c r="E349">
+        <v>12.243421615812</v>
+      </c>
+      <c r="F349">
+        <v>9.360331403472719</v>
+      </c>
+      <c r="G349">
+        <v>352.9175267175588</v>
+      </c>
+      <c r="H349">
+        <v>211.1870831742912</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>59391</v>
+      </c>
+      <c r="C350">
+        <v>43995.47700239133</v>
+      </c>
+      <c r="D350">
+        <v>0.1432510090883901</v>
+      </c>
+      <c r="E350">
+        <v>12.24845484599875</v>
+      </c>
+      <c r="F350">
+        <v>9.35861361216875</v>
+      </c>
+      <c r="G350">
+        <v>352.8708220112658</v>
+      </c>
+      <c r="H350">
+        <v>189.9689553743294</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>59392</v>
+      </c>
+      <c r="C351">
+        <v>43982.79050550579</v>
+      </c>
+      <c r="D351">
+        <v>0.1391130644575204</v>
+      </c>
+      <c r="E351">
+        <v>12.2528010259535</v>
+      </c>
+      <c r="F351">
+        <v>9.358090428182026</v>
+      </c>
+      <c r="G351">
+        <v>352.7676797561375</v>
+      </c>
+      <c r="H351">
+        <v>168.7910591779931</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>59393</v>
+      </c>
+      <c r="C352">
+        <v>43970.91613251213</v>
+      </c>
+      <c r="D352">
+        <v>0.1349684442883557</v>
+      </c>
+      <c r="E352">
+        <v>12.25673346427279</v>
+      </c>
+      <c r="F352">
+        <v>9.35730713590976</v>
+      </c>
+      <c r="G352">
+        <v>352.6086115063769</v>
+      </c>
+      <c r="H352">
+        <v>147.6569497609386</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>59394</v>
+      </c>
+      <c r="C353">
+        <v>43960.31110587835</v>
+      </c>
+      <c r="D353">
+        <v>0.1308006317780548</v>
+      </c>
+      <c r="E353">
+        <v>12.26062912138723</v>
+      </c>
+      <c r="F353">
+        <v>9.3560322538696</v>
+      </c>
+      <c r="G353">
+        <v>352.3974674789525</v>
+      </c>
+      <c r="H353">
+        <v>126.5633114457224</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>59395</v>
+      </c>
+      <c r="C354">
+        <v>43952.75352269766</v>
+      </c>
+      <c r="D354">
+        <v>0.126591573529776</v>
+      </c>
+      <c r="E354">
+        <v>12.26492424994034</v>
+      </c>
+      <c r="F354">
+        <v>9.354586993877906</v>
+      </c>
+      <c r="G354">
+        <v>352.1449684290693</v>
+      </c>
+      <c r="H354">
+        <v>105.5002202506016</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>59396</v>
+      </c>
+      <c r="C355">
+        <v>43950.82092098812</v>
+      </c>
+      <c r="D355">
+        <v>0.1223429407788898</v>
+      </c>
+      <c r="E355">
+        <v>12.2700161666235</v>
+      </c>
+      <c r="F355">
+        <v>9.353045333581491</v>
+      </c>
+      <c r="G355">
+        <v>351.8690137685505</v>
+      </c>
+      <c r="H355">
+        <v>84.45433850211676</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>59397</v>
+      </c>
+      <c r="C356">
+        <v>43956.51353780755</v>
+      </c>
+      <c r="D356">
+        <v>0.1180902027541796</v>
+      </c>
+      <c r="E356">
+        <v>12.27613262402964</v>
+      </c>
+      <c r="F356">
+        <v>9.350713003986879</v>
+      </c>
+      <c r="G356">
+        <v>351.5824897232235</v>
+      </c>
+      <c r="H356">
+        <v>63.42227887738865</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>59398</v>
+      </c>
+      <c r="C357">
+        <v>43969.40308928941</v>
+      </c>
+      <c r="D357">
+        <v>0.1138816881311989</v>
+      </c>
+      <c r="E357">
+        <v>12.28318590055845</v>
+      </c>
+      <c r="F357">
+        <v>9.346285014670512</v>
+      </c>
+      <c r="G357">
+        <v>351.2710504969335</v>
+      </c>
+      <c r="H357">
+        <v>42.43006717503762</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>59399</v>
+      </c>
+      <c r="C358">
+        <v>43986.20071661847</v>
+      </c>
+      <c r="D358">
+        <v>0.1097320932867367</v>
+      </c>
+      <c r="E358">
+        <v>12.29075337491687</v>
+      </c>
+      <c r="F358">
+        <v>9.338890640932323</v>
+      </c>
+      <c r="G358">
+        <v>350.8884139263958</v>
+      </c>
+      <c r="H358">
+        <v>21.53153099732427</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>59400</v>
+      </c>
+      <c r="C359">
+        <v>44003.4482389532</v>
+      </c>
+      <c r="D359">
+        <v>0.1056208106761549</v>
+      </c>
+      <c r="E359">
+        <v>12.29832439756922</v>
+      </c>
+      <c r="F359">
+        <v>9.328938616501244</v>
+      </c>
+      <c r="G359">
+        <v>350.3886519356185</v>
+      </c>
+      <c r="H359">
+        <v>0.7732884978011081</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>59401</v>
+      </c>
+      <c r="C360">
+        <v>44019.17840449967</v>
+      </c>
+      <c r="D360">
+        <v>0.1015261560351555</v>
+      </c>
+      <c r="E360">
+        <v>12.30552661462365</v>
+      </c>
+      <c r="F360">
+        <v>9.317461807928996</v>
+      </c>
+      <c r="G360">
+        <v>349.7533738021472</v>
+      </c>
+      <c r="H360">
+        <v>340.1724523828852</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>59402</v>
+      </c>
+      <c r="C361">
+        <v>44031.26820420058</v>
+      </c>
+      <c r="D361">
+        <v>0.09743007660619289</v>
+      </c>
+      <c r="E361">
+        <v>12.31206377744794</v>
+      </c>
+      <c r="F361">
+        <v>9.305206283781461</v>
+      </c>
+      <c r="G361">
+        <v>348.992787236328</v>
+      </c>
+      <c r="H361">
+        <v>319.7175168952742</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>59403</v>
+      </c>
+      <c r="C362">
+        <v>44037.20413367618</v>
+      </c>
+      <c r="D362">
+        <v>0.09333271948395702</v>
+      </c>
+      <c r="E362">
+        <v>12.3176183591162</v>
+      </c>
+      <c r="F362">
+        <v>9.292674631085719</v>
+      </c>
+      <c r="G362">
+        <v>348.1369171687634</v>
+      </c>
+      <c r="H362">
+        <v>299.3734788591485</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>59404</v>
+      </c>
+      <c r="C363">
+        <v>44035.57452227076</v>
+      </c>
+      <c r="D363">
+        <v>0.08926840000882512</v>
+      </c>
+      <c r="E363">
+        <v>12.32190537580182</v>
+      </c>
+      <c r="F363">
+        <v>9.28047042648155</v>
+      </c>
+      <c r="G363">
+        <v>347.2128805721004</v>
+      </c>
+      <c r="H363">
+        <v>279.1030488207575</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>59405</v>
+      </c>
+      <c r="C364">
+        <v>44026.93227181877</v>
+      </c>
+      <c r="D364">
+        <v>0.08528634238108737</v>
+      </c>
+      <c r="E364">
+        <v>12.32480007237205</v>
+      </c>
+      <c r="F364">
+        <v>9.269285160042173</v>
+      </c>
+      <c r="G364">
+        <v>346.2203617621635</v>
+      </c>
+      <c r="H364">
+        <v>258.8938631506467</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>59406</v>
+      </c>
+      <c r="C365">
+        <v>44013.58940152234</v>
+      </c>
+      <c r="D365">
+        <v>0.08141588719310944</v>
+      </c>
+      <c r="E365">
+        <v>12.32642171526252</v>
+      </c>
+      <c r="F365">
+        <v>9.259569920389614</v>
+      </c>
+      <c r="G365">
+        <v>345.1239097534598</v>
+      </c>
+      <c r="H365">
+        <v>238.7707809017406</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>59407</v>
+      </c>
+      <c r="C366">
+        <v>43998.67239625849</v>
+      </c>
+      <c r="D366">
+        <v>0.07765119074766802</v>
+      </c>
+      <c r="E366">
+        <v>12.32711520684102</v>
+      </c>
+      <c r="F366">
+        <v>9.251208729663727</v>
+      </c>
+      <c r="G366">
+        <v>343.8651025993124</v>
+      </c>
+      <c r="H366">
+        <v>218.7877407694937</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>59408</v>
+      </c>
+      <c r="C367">
+        <v>43984.6402272773</v>
+      </c>
+      <c r="D367">
+        <v>0.07397144840210707</v>
+      </c>
+      <c r="E367">
+        <v>12.32731702806892</v>
+      </c>
+      <c r="F367">
+        <v>9.243499760399384</v>
+      </c>
+      <c r="G367">
+        <v>342.384802982673</v>
+      </c>
+      <c r="H367">
+        <v>199.0064681541708</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>59408.25</v>
+      </c>
+      <c r="C368">
+        <v>44033.69555330268</v>
+      </c>
+      <c r="D368">
+        <v>0.07309578242662246</v>
+      </c>
+      <c r="E368">
+        <v>12.33228926852686</v>
+      </c>
+      <c r="F368">
+        <v>9.260880528732859</v>
+      </c>
+      <c r="G368">
+        <v>341.7065687379688</v>
+      </c>
+      <c r="H368">
+        <v>284.2658358636552</v>
       </c>
     </row>
   </sheetData>
